--- a/HandChart.xlsx
+++ b/HandChart.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\chatGPT\Holdem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCC5D275-2BB1-4616-AEC4-6F1E6496BFC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{4B396FC4-8BD0-4FE1-90F2-9067CFC476C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D00D2A36-8C31-466B-8C7F-19735E980CF5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{D00D2A36-8C31-466B-8C7F-19735E980CF5}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="HandChart" sheetId="2" r:id="rId2"/>
+    <sheet name="HoleCardOdds" sheetId="1" r:id="rId1"/>
+    <sheet name="gutshot" sheetId="3" r:id="rId2"/>
+    <sheet name="gutshot_list" sheetId="4" r:id="rId3"/>
+    <sheet name="HandChart" sheetId="2" r:id="rId4"/>
+    <sheet name="Odds" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet5" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="28">
   <si>
     <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,7 +63,95 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>['As Ad', '3d Qh', 'Jh 3d', '5c 2d', '4h Jh', 'As Jd', '9c Td', 'Kd 7c', 'Jh 7d', '6c Ts', '3h Qd', 'Td Th', 'Ad Td', 'Ah As']</t>
+    <t>A2345</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TJQKA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i)연속된 숫자가 하나이상은 있음 그러나 4개가 넘으면 양차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빵꾸 개수 총 : 32개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>풀하우스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플랍의 경우의 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개별</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수딧(78개)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오프수딧(78개)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파켓(13개)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>합계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플러쉬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체경우의 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>suited</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>off_suited</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pocket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체확률</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -67,7 +159,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="0.0000%"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,6 +179,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -92,7 +196,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -100,21 +204,790 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="33" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="백분율" xfId="2" builtinId="5"/>
+    <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -427,725 +1300,2347 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{219752E6-2663-4E6D-8F7C-BCF7FE55CC53}">
-  <dimension ref="A1:O17"/>
+  <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.5" style="1" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C1">
-        <v>0</v>
-      </c>
-      <c r="D1">
+    <row r="1" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1">
         <v>1</v>
       </c>
-      <c r="E1">
+      <c r="E1" s="1">
         <v>2</v>
       </c>
-      <c r="F1">
+      <c r="F1" s="1">
         <v>3</v>
       </c>
-      <c r="G1">
-        <v>4</v>
-      </c>
-      <c r="H1">
+      <c r="G1" s="1">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1">
         <v>5</v>
       </c>
-      <c r="I1">
+      <c r="I1" s="1">
         <v>6</v>
       </c>
-      <c r="J1">
+      <c r="J1" s="1">
         <v>7</v>
       </c>
-      <c r="K1">
+      <c r="K1" s="1">
         <v>8</v>
       </c>
-      <c r="L1">
+      <c r="L1" s="1">
         <v>9</v>
       </c>
-      <c r="M1">
+      <c r="M1" s="1">
         <v>10</v>
       </c>
-      <c r="N1">
+      <c r="N1" s="1">
         <v>11</v>
       </c>
-      <c r="O1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="O1" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="42"/>
+      <c r="C2" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="1">
+      <c r="G2" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="44">
         <v>9</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="44">
         <v>8</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="44">
         <v>7</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="44">
         <v>6</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="44">
         <v>5</v>
       </c>
-      <c r="M2" s="1">
-        <v>4</v>
-      </c>
-      <c r="N2" s="1">
+      <c r="M2" s="44">
+        <v>4</v>
+      </c>
+      <c r="N2" s="44">
         <v>3</v>
       </c>
-      <c r="O2" s="1">
+      <c r="O2" s="45">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="39">
+        <v>6</v>
+      </c>
+      <c r="D3" s="40">
+        <v>4</v>
+      </c>
+      <c r="E3" s="40">
+        <v>4</v>
+      </c>
+      <c r="F3" s="40">
+        <v>4</v>
+      </c>
+      <c r="G3" s="40">
+        <v>4</v>
+      </c>
+      <c r="H3" s="40">
+        <v>4</v>
+      </c>
+      <c r="I3" s="40">
+        <v>4</v>
+      </c>
+      <c r="J3" s="40">
+        <v>4</v>
+      </c>
+      <c r="K3" s="40">
+        <v>4</v>
+      </c>
+      <c r="L3" s="40">
+        <v>4</v>
+      </c>
+      <c r="M3" s="40">
+        <v>4</v>
+      </c>
+      <c r="N3" s="40">
+        <v>4</v>
+      </c>
+      <c r="O3" s="41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="34">
+        <v>12</v>
+      </c>
+      <c r="D4" s="16">
+        <v>6</v>
+      </c>
+      <c r="E4" s="16">
+        <v>4</v>
+      </c>
+      <c r="F4" s="16">
+        <v>4</v>
+      </c>
+      <c r="G4" s="16">
+        <v>4</v>
+      </c>
+      <c r="H4" s="16">
+        <v>4</v>
+      </c>
+      <c r="I4" s="16">
+        <v>4</v>
+      </c>
+      <c r="J4" s="16">
+        <v>4</v>
+      </c>
+      <c r="K4" s="16">
+        <v>4</v>
+      </c>
+      <c r="L4" s="16">
+        <v>4</v>
+      </c>
+      <c r="M4" s="16">
+        <v>4</v>
+      </c>
+      <c r="N4" s="16">
+        <v>4</v>
+      </c>
+      <c r="O4" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0</v>
-      </c>
-      <c r="L3" s="1">
-        <v>0</v>
-      </c>
-      <c r="M3" s="1">
+      <c r="B5" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="34">
+        <v>12</v>
+      </c>
+      <c r="D5" s="16">
+        <v>12</v>
+      </c>
+      <c r="E5" s="16">
+        <v>6</v>
+      </c>
+      <c r="F5" s="16">
+        <v>4</v>
+      </c>
+      <c r="G5" s="16">
+        <v>4</v>
+      </c>
+      <c r="H5" s="16">
+        <v>4</v>
+      </c>
+      <c r="I5" s="16">
+        <v>4</v>
+      </c>
+      <c r="J5" s="16">
+        <v>4</v>
+      </c>
+      <c r="K5" s="16">
+        <v>4</v>
+      </c>
+      <c r="L5" s="16">
+        <v>4</v>
+      </c>
+      <c r="M5" s="16">
+        <v>4</v>
+      </c>
+      <c r="N5" s="16">
+        <v>4</v>
+      </c>
+      <c r="O5" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="34">
+        <v>12</v>
+      </c>
+      <c r="D6" s="16">
+        <v>12</v>
+      </c>
+      <c r="E6" s="16">
+        <v>12</v>
+      </c>
+      <c r="F6" s="16">
+        <v>6</v>
+      </c>
+      <c r="G6" s="16">
+        <v>4</v>
+      </c>
+      <c r="H6" s="16">
+        <v>4</v>
+      </c>
+      <c r="I6" s="16">
+        <v>4</v>
+      </c>
+      <c r="J6" s="16">
+        <v>4</v>
+      </c>
+      <c r="K6" s="16">
+        <v>4</v>
+      </c>
+      <c r="L6" s="16">
+        <v>4</v>
+      </c>
+      <c r="M6" s="16">
+        <v>4</v>
+      </c>
+      <c r="N6" s="16">
+        <v>4</v>
+      </c>
+      <c r="O6" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="34">
+        <v>12</v>
+      </c>
+      <c r="D7" s="16">
+        <v>12</v>
+      </c>
+      <c r="E7" s="16">
+        <v>12</v>
+      </c>
+      <c r="F7" s="16">
+        <v>12</v>
+      </c>
+      <c r="G7" s="16">
+        <v>6</v>
+      </c>
+      <c r="H7" s="16">
+        <v>4</v>
+      </c>
+      <c r="I7" s="16">
+        <v>4</v>
+      </c>
+      <c r="J7" s="16">
+        <v>4</v>
+      </c>
+      <c r="K7" s="16">
+        <v>4</v>
+      </c>
+      <c r="L7" s="16">
+        <v>4</v>
+      </c>
+      <c r="M7" s="16">
+        <v>4</v>
+      </c>
+      <c r="N7" s="16">
+        <v>4</v>
+      </c>
+      <c r="O7" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="36">
+        <v>9</v>
+      </c>
+      <c r="C8" s="34">
+        <v>12</v>
+      </c>
+      <c r="D8" s="16">
+        <v>12</v>
+      </c>
+      <c r="E8" s="16">
+        <v>12</v>
+      </c>
+      <c r="F8" s="16">
+        <v>12</v>
+      </c>
+      <c r="G8" s="16">
+        <v>12</v>
+      </c>
+      <c r="H8" s="16">
+        <v>6</v>
+      </c>
+      <c r="I8" s="16">
+        <v>4</v>
+      </c>
+      <c r="J8" s="16">
+        <v>4</v>
+      </c>
+      <c r="K8" s="16">
+        <v>4</v>
+      </c>
+      <c r="L8" s="16">
+        <v>4</v>
+      </c>
+      <c r="M8" s="16">
+        <v>4</v>
+      </c>
+      <c r="N8" s="16">
+        <v>4</v>
+      </c>
+      <c r="O8" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" s="36">
+        <v>8</v>
+      </c>
+      <c r="C9" s="34">
+        <v>12</v>
+      </c>
+      <c r="D9" s="16">
+        <v>12</v>
+      </c>
+      <c r="E9" s="16">
+        <v>12</v>
+      </c>
+      <c r="F9" s="16">
+        <v>12</v>
+      </c>
+      <c r="G9" s="16">
+        <v>12</v>
+      </c>
+      <c r="H9" s="16">
+        <v>12</v>
+      </c>
+      <c r="I9" s="16">
+        <v>6</v>
+      </c>
+      <c r="J9" s="16">
+        <v>4</v>
+      </c>
+      <c r="K9" s="16">
+        <v>4</v>
+      </c>
+      <c r="L9" s="16">
+        <v>4</v>
+      </c>
+      <c r="M9" s="16">
+        <v>4</v>
+      </c>
+      <c r="N9" s="16">
+        <v>4</v>
+      </c>
+      <c r="O9" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="B10" s="36">
+        <v>7</v>
+      </c>
+      <c r="C10" s="34">
+        <v>12</v>
+      </c>
+      <c r="D10" s="16">
+        <v>12</v>
+      </c>
+      <c r="E10" s="16">
+        <v>12</v>
+      </c>
+      <c r="F10" s="16">
+        <v>12</v>
+      </c>
+      <c r="G10" s="16">
+        <v>12</v>
+      </c>
+      <c r="H10" s="16">
+        <v>12</v>
+      </c>
+      <c r="I10" s="16">
+        <v>12</v>
+      </c>
+      <c r="J10" s="16">
+        <v>6</v>
+      </c>
+      <c r="K10" s="16">
+        <v>4</v>
+      </c>
+      <c r="L10" s="16">
+        <v>4</v>
+      </c>
+      <c r="M10" s="16">
+        <v>4</v>
+      </c>
+      <c r="N10" s="16">
+        <v>4</v>
+      </c>
+      <c r="O10" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="B11" s="36">
+        <v>6</v>
+      </c>
+      <c r="C11" s="34">
+        <v>12</v>
+      </c>
+      <c r="D11" s="16">
+        <v>12</v>
+      </c>
+      <c r="E11" s="16">
+        <v>12</v>
+      </c>
+      <c r="F11" s="16">
+        <v>12</v>
+      </c>
+      <c r="G11" s="16">
+        <v>12</v>
+      </c>
+      <c r="H11" s="16">
+        <v>12</v>
+      </c>
+      <c r="I11" s="16">
+        <v>12</v>
+      </c>
+      <c r="J11" s="16">
+        <v>12</v>
+      </c>
+      <c r="K11" s="16">
+        <v>6</v>
+      </c>
+      <c r="L11" s="16">
+        <v>4</v>
+      </c>
+      <c r="M11" s="16">
+        <v>4</v>
+      </c>
+      <c r="N11" s="16">
+        <v>4</v>
+      </c>
+      <c r="O11" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>9</v>
+      </c>
+      <c r="B12" s="36">
+        <v>5</v>
+      </c>
+      <c r="C12" s="34">
+        <v>12</v>
+      </c>
+      <c r="D12" s="16">
+        <v>12</v>
+      </c>
+      <c r="E12" s="16">
+        <v>12</v>
+      </c>
+      <c r="F12" s="16">
+        <v>12</v>
+      </c>
+      <c r="G12" s="16">
+        <v>12</v>
+      </c>
+      <c r="H12" s="16">
+        <v>12</v>
+      </c>
+      <c r="I12" s="16">
+        <v>12</v>
+      </c>
+      <c r="J12" s="16">
+        <v>12</v>
+      </c>
+      <c r="K12" s="16">
+        <v>12</v>
+      </c>
+      <c r="L12" s="16">
+        <v>6</v>
+      </c>
+      <c r="M12" s="16">
+        <v>4</v>
+      </c>
+      <c r="N12" s="16">
+        <v>4</v>
+      </c>
+      <c r="O12" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>10</v>
+      </c>
+      <c r="B13" s="36">
+        <v>4</v>
+      </c>
+      <c r="C13" s="34">
+        <v>12</v>
+      </c>
+      <c r="D13" s="16">
+        <v>12</v>
+      </c>
+      <c r="E13" s="16">
+        <v>12</v>
+      </c>
+      <c r="F13" s="16">
+        <v>12</v>
+      </c>
+      <c r="G13" s="16">
+        <v>12</v>
+      </c>
+      <c r="H13" s="16">
+        <v>12</v>
+      </c>
+      <c r="I13" s="16">
+        <v>12</v>
+      </c>
+      <c r="J13" s="16">
+        <v>12</v>
+      </c>
+      <c r="K13" s="16">
+        <v>12</v>
+      </c>
+      <c r="L13" s="16">
+        <v>12</v>
+      </c>
+      <c r="M13" s="16">
+        <v>6</v>
+      </c>
+      <c r="N13" s="16">
+        <v>4</v>
+      </c>
+      <c r="O13" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>11</v>
+      </c>
+      <c r="B14" s="36">
+        <v>3</v>
+      </c>
+      <c r="C14" s="34">
+        <v>12</v>
+      </c>
+      <c r="D14" s="16">
+        <v>12</v>
+      </c>
+      <c r="E14" s="16">
+        <v>12</v>
+      </c>
+      <c r="F14" s="16">
+        <v>12</v>
+      </c>
+      <c r="G14" s="16">
+        <v>12</v>
+      </c>
+      <c r="H14" s="16">
+        <v>12</v>
+      </c>
+      <c r="I14" s="16">
+        <v>12</v>
+      </c>
+      <c r="J14" s="16">
+        <v>12</v>
+      </c>
+      <c r="K14" s="16">
+        <v>12</v>
+      </c>
+      <c r="L14" s="16">
+        <v>12</v>
+      </c>
+      <c r="M14" s="16">
+        <v>12</v>
+      </c>
+      <c r="N14" s="16">
+        <v>6</v>
+      </c>
+      <c r="O14" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>12</v>
+      </c>
+      <c r="B15" s="37">
+        <v>2</v>
+      </c>
+      <c r="C15" s="35">
+        <v>12</v>
+      </c>
+      <c r="D15" s="26">
+        <v>12</v>
+      </c>
+      <c r="E15" s="26">
+        <v>12</v>
+      </c>
+      <c r="F15" s="26">
+        <v>12</v>
+      </c>
+      <c r="G15" s="26">
+        <v>12</v>
+      </c>
+      <c r="H15" s="26">
+        <v>12</v>
+      </c>
+      <c r="I15" s="26">
+        <v>12</v>
+      </c>
+      <c r="J15" s="26">
+        <v>12</v>
+      </c>
+      <c r="K15" s="26">
+        <v>12</v>
+      </c>
+      <c r="L15" s="26">
+        <v>12</v>
+      </c>
+      <c r="M15" s="26">
+        <v>12</v>
+      </c>
+      <c r="N15" s="26">
+        <v>12</v>
+      </c>
+      <c r="O15" s="27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="17" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="33"/>
+      <c r="D17" s="45">
+        <f>SUM(C3:O15)</f>
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1">
         <v>1</v>
       </c>
-      <c r="N3" s="1">
-        <v>0</v>
-      </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="E19" s="1">
+        <v>2</v>
+      </c>
+      <c r="F19" s="1">
+        <v>3</v>
+      </c>
+      <c r="G19" s="1">
+        <v>4</v>
+      </c>
+      <c r="H19" s="1">
+        <v>5</v>
+      </c>
+      <c r="I19" s="1">
+        <v>6</v>
+      </c>
+      <c r="J19" s="1">
+        <v>7</v>
+      </c>
+      <c r="K19" s="1">
+        <v>8</v>
+      </c>
+      <c r="L19" s="1">
+        <v>9</v>
+      </c>
+      <c r="M19" s="1">
+        <v>10</v>
+      </c>
+      <c r="N19" s="1">
+        <v>11</v>
+      </c>
+      <c r="O19" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="42"/>
+      <c r="C20" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="E20" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="44">
+        <v>9</v>
+      </c>
+      <c r="I20" s="44">
+        <v>8</v>
+      </c>
+      <c r="J20" s="44">
+        <v>7</v>
+      </c>
+      <c r="K20" s="44">
+        <v>6</v>
+      </c>
+      <c r="L20" s="44">
+        <v>5</v>
+      </c>
+      <c r="M20" s="44">
+        <v>4</v>
+      </c>
+      <c r="N20" s="44">
+        <v>3</v>
+      </c>
+      <c r="O20" s="45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>0</v>
+      </c>
+      <c r="B21" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="46">
+        <f>C3/$D$17</f>
+        <v>4.5248868778280547E-3</v>
+      </c>
+      <c r="D21" s="47">
+        <f t="shared" ref="D21:O21" si="0">D3/$D$17</f>
+        <v>3.0165912518853697E-3</v>
+      </c>
+      <c r="E21" s="47">
+        <f t="shared" si="0"/>
+        <v>3.0165912518853697E-3</v>
+      </c>
+      <c r="F21" s="47">
+        <f t="shared" si="0"/>
+        <v>3.0165912518853697E-3</v>
+      </c>
+      <c r="G21" s="47">
+        <f t="shared" si="0"/>
+        <v>3.0165912518853697E-3</v>
+      </c>
+      <c r="H21" s="47">
+        <f t="shared" si="0"/>
+        <v>3.0165912518853697E-3</v>
+      </c>
+      <c r="I21" s="47">
+        <f t="shared" si="0"/>
+        <v>3.0165912518853697E-3</v>
+      </c>
+      <c r="J21" s="47">
+        <f t="shared" si="0"/>
+        <v>3.0165912518853697E-3</v>
+      </c>
+      <c r="K21" s="47">
+        <f t="shared" si="0"/>
+        <v>3.0165912518853697E-3</v>
+      </c>
+      <c r="L21" s="47">
+        <f t="shared" si="0"/>
+        <v>3.0165912518853697E-3</v>
+      </c>
+      <c r="M21" s="47">
+        <f t="shared" si="0"/>
+        <v>3.0165912518853697E-3</v>
+      </c>
+      <c r="N21" s="47">
+        <f t="shared" si="0"/>
+        <v>3.0165912518853697E-3</v>
+      </c>
+      <c r="O21" s="48">
+        <f t="shared" si="0"/>
+        <v>3.0165912518853697E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0</v>
-      </c>
-      <c r="L4" s="1">
-        <v>0</v>
-      </c>
-      <c r="M4" s="1">
-        <v>0</v>
-      </c>
-      <c r="N4" s="1">
-        <v>0</v>
-      </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="B22" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="49">
+        <f t="shared" ref="C22:O22" si="1">C4/$D$17</f>
+        <v>9.0497737556561094E-3</v>
+      </c>
+      <c r="D22" s="50">
+        <f t="shared" si="1"/>
+        <v>4.5248868778280547E-3</v>
+      </c>
+      <c r="E22" s="50">
+        <f t="shared" si="1"/>
+        <v>3.0165912518853697E-3</v>
+      </c>
+      <c r="F22" s="50">
+        <f t="shared" si="1"/>
+        <v>3.0165912518853697E-3</v>
+      </c>
+      <c r="G22" s="50">
+        <f t="shared" si="1"/>
+        <v>3.0165912518853697E-3</v>
+      </c>
+      <c r="H22" s="50">
+        <f t="shared" si="1"/>
+        <v>3.0165912518853697E-3</v>
+      </c>
+      <c r="I22" s="50">
+        <f t="shared" si="1"/>
+        <v>3.0165912518853697E-3</v>
+      </c>
+      <c r="J22" s="50">
+        <f t="shared" si="1"/>
+        <v>3.0165912518853697E-3</v>
+      </c>
+      <c r="K22" s="50">
+        <f t="shared" si="1"/>
+        <v>3.0165912518853697E-3</v>
+      </c>
+      <c r="L22" s="50">
+        <f t="shared" si="1"/>
+        <v>3.0165912518853697E-3</v>
+      </c>
+      <c r="M22" s="50">
+        <f t="shared" si="1"/>
+        <v>3.0165912518853697E-3</v>
+      </c>
+      <c r="N22" s="50">
+        <f t="shared" si="1"/>
+        <v>3.0165912518853697E-3</v>
+      </c>
+      <c r="O22" s="51">
+        <f t="shared" si="1"/>
+        <v>3.0165912518853697E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B23" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0</v>
-      </c>
-      <c r="L5" s="1">
-        <v>0</v>
-      </c>
-      <c r="M5" s="1">
-        <v>0</v>
-      </c>
-      <c r="N5" s="1">
-        <v>0</v>
-      </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="C23" s="49">
+        <f t="shared" ref="C23:O23" si="2">C5/$D$17</f>
+        <v>9.0497737556561094E-3</v>
+      </c>
+      <c r="D23" s="50">
+        <f t="shared" si="2"/>
+        <v>9.0497737556561094E-3</v>
+      </c>
+      <c r="E23" s="50">
+        <f t="shared" si="2"/>
+        <v>4.5248868778280547E-3</v>
+      </c>
+      <c r="F23" s="50">
+        <f t="shared" si="2"/>
+        <v>3.0165912518853697E-3</v>
+      </c>
+      <c r="G23" s="50">
+        <f t="shared" si="2"/>
+        <v>3.0165912518853697E-3</v>
+      </c>
+      <c r="H23" s="50">
+        <f t="shared" si="2"/>
+        <v>3.0165912518853697E-3</v>
+      </c>
+      <c r="I23" s="50">
+        <f t="shared" si="2"/>
+        <v>3.0165912518853697E-3</v>
+      </c>
+      <c r="J23" s="50">
+        <f t="shared" si="2"/>
+        <v>3.0165912518853697E-3</v>
+      </c>
+      <c r="K23" s="50">
+        <f t="shared" si="2"/>
+        <v>3.0165912518853697E-3</v>
+      </c>
+      <c r="L23" s="50">
+        <f t="shared" si="2"/>
+        <v>3.0165912518853697E-3</v>
+      </c>
+      <c r="M23" s="50">
+        <f t="shared" si="2"/>
+        <v>3.0165912518853697E-3</v>
+      </c>
+      <c r="N23" s="50">
+        <f t="shared" si="2"/>
+        <v>3.0165912518853697E-3</v>
+      </c>
+      <c r="O23" s="51">
+        <f t="shared" si="2"/>
+        <v>3.0165912518853697E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
         <v>3</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B24" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0</v>
-      </c>
-      <c r="L6" s="1">
-        <v>0</v>
-      </c>
-      <c r="M6" s="1">
-        <v>1</v>
-      </c>
-      <c r="N6" s="1">
-        <v>0</v>
-      </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0</v>
-      </c>
-      <c r="L7" s="1">
-        <v>0</v>
-      </c>
-      <c r="M7" s="1">
-        <v>0</v>
-      </c>
-      <c r="N7" s="1">
-        <v>0</v>
-      </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="C24" s="49">
+        <f t="shared" ref="C24:O24" si="3">C6/$D$17</f>
+        <v>9.0497737556561094E-3</v>
+      </c>
+      <c r="D24" s="50">
+        <f t="shared" si="3"/>
+        <v>9.0497737556561094E-3</v>
+      </c>
+      <c r="E24" s="50">
+        <f t="shared" si="3"/>
+        <v>9.0497737556561094E-3</v>
+      </c>
+      <c r="F24" s="50">
+        <f t="shared" si="3"/>
+        <v>4.5248868778280547E-3</v>
+      </c>
+      <c r="G24" s="50">
+        <f t="shared" si="3"/>
+        <v>3.0165912518853697E-3</v>
+      </c>
+      <c r="H24" s="50">
+        <f t="shared" si="3"/>
+        <v>3.0165912518853697E-3</v>
+      </c>
+      <c r="I24" s="50">
+        <f t="shared" si="3"/>
+        <v>3.0165912518853697E-3</v>
+      </c>
+      <c r="J24" s="50">
+        <f t="shared" si="3"/>
+        <v>3.0165912518853697E-3</v>
+      </c>
+      <c r="K24" s="50">
+        <f t="shared" si="3"/>
+        <v>3.0165912518853697E-3</v>
+      </c>
+      <c r="L24" s="50">
+        <f t="shared" si="3"/>
+        <v>3.0165912518853697E-3</v>
+      </c>
+      <c r="M24" s="50">
+        <f t="shared" si="3"/>
+        <v>3.0165912518853697E-3</v>
+      </c>
+      <c r="N24" s="50">
+        <f t="shared" si="3"/>
+        <v>3.0165912518853697E-3</v>
+      </c>
+      <c r="O24" s="51">
+        <f t="shared" si="3"/>
+        <v>3.0165912518853697E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>4</v>
+      </c>
+      <c r="B25" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="49">
+        <f t="shared" ref="C25:O25" si="4">C7/$D$17</f>
+        <v>9.0497737556561094E-3</v>
+      </c>
+      <c r="D25" s="50">
+        <f t="shared" si="4"/>
+        <v>9.0497737556561094E-3</v>
+      </c>
+      <c r="E25" s="50">
+        <f t="shared" si="4"/>
+        <v>9.0497737556561094E-3</v>
+      </c>
+      <c r="F25" s="50">
+        <f t="shared" si="4"/>
+        <v>9.0497737556561094E-3</v>
+      </c>
+      <c r="G25" s="50">
+        <f t="shared" si="4"/>
+        <v>4.5248868778280547E-3</v>
+      </c>
+      <c r="H25" s="50">
+        <f t="shared" si="4"/>
+        <v>3.0165912518853697E-3</v>
+      </c>
+      <c r="I25" s="50">
+        <f t="shared" si="4"/>
+        <v>3.0165912518853697E-3</v>
+      </c>
+      <c r="J25" s="50">
+        <f t="shared" si="4"/>
+        <v>3.0165912518853697E-3</v>
+      </c>
+      <c r="K25" s="50">
+        <f t="shared" si="4"/>
+        <v>3.0165912518853697E-3</v>
+      </c>
+      <c r="L25" s="50">
+        <f t="shared" si="4"/>
+        <v>3.0165912518853697E-3</v>
+      </c>
+      <c r="M25" s="50">
+        <f t="shared" si="4"/>
+        <v>3.0165912518853697E-3</v>
+      </c>
+      <c r="N25" s="50">
+        <f t="shared" si="4"/>
+        <v>3.0165912518853697E-3</v>
+      </c>
+      <c r="O25" s="51">
+        <f t="shared" si="4"/>
+        <v>3.0165912518853697E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
         <v>5</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B26" s="36">
         <v>9</v>
       </c>
-      <c r="C8" s="1">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1">
-        <v>1</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0</v>
-      </c>
-      <c r="L8" s="1">
-        <v>0</v>
-      </c>
-      <c r="M8" s="1">
-        <v>0</v>
-      </c>
-      <c r="N8" s="1">
-        <v>0</v>
-      </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="C26" s="49">
+        <f t="shared" ref="C26:O26" si="5">C8/$D$17</f>
+        <v>9.0497737556561094E-3</v>
+      </c>
+      <c r="D26" s="50">
+        <f t="shared" si="5"/>
+        <v>9.0497737556561094E-3</v>
+      </c>
+      <c r="E26" s="50">
+        <f t="shared" si="5"/>
+        <v>9.0497737556561094E-3</v>
+      </c>
+      <c r="F26" s="50">
+        <f t="shared" si="5"/>
+        <v>9.0497737556561094E-3</v>
+      </c>
+      <c r="G26" s="50">
+        <f t="shared" si="5"/>
+        <v>9.0497737556561094E-3</v>
+      </c>
+      <c r="H26" s="50">
+        <f t="shared" si="5"/>
+        <v>4.5248868778280547E-3</v>
+      </c>
+      <c r="I26" s="50">
+        <f t="shared" si="5"/>
+        <v>3.0165912518853697E-3</v>
+      </c>
+      <c r="J26" s="50">
+        <f t="shared" si="5"/>
+        <v>3.0165912518853697E-3</v>
+      </c>
+      <c r="K26" s="50">
+        <f t="shared" si="5"/>
+        <v>3.0165912518853697E-3</v>
+      </c>
+      <c r="L26" s="50">
+        <f t="shared" si="5"/>
+        <v>3.0165912518853697E-3</v>
+      </c>
+      <c r="M26" s="50">
+        <f t="shared" si="5"/>
+        <v>3.0165912518853697E-3</v>
+      </c>
+      <c r="N26" s="50">
+        <f t="shared" si="5"/>
+        <v>3.0165912518853697E-3</v>
+      </c>
+      <c r="O26" s="51">
+        <f t="shared" si="5"/>
+        <v>3.0165912518853697E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
         <v>6</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B27" s="36">
         <v>8</v>
       </c>
-      <c r="C9" s="1">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0</v>
-      </c>
-      <c r="J9" s="1">
-        <v>0</v>
-      </c>
-      <c r="K9" s="1">
-        <v>0</v>
-      </c>
-      <c r="L9" s="1">
-        <v>0</v>
-      </c>
-      <c r="M9" s="1">
-        <v>0</v>
-      </c>
-      <c r="N9" s="1">
-        <v>0</v>
-      </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="C27" s="49">
+        <f t="shared" ref="C27:O27" si="6">C9/$D$17</f>
+        <v>9.0497737556561094E-3</v>
+      </c>
+      <c r="D27" s="50">
+        <f t="shared" si="6"/>
+        <v>9.0497737556561094E-3</v>
+      </c>
+      <c r="E27" s="50">
+        <f t="shared" si="6"/>
+        <v>9.0497737556561094E-3</v>
+      </c>
+      <c r="F27" s="50">
+        <f t="shared" si="6"/>
+        <v>9.0497737556561094E-3</v>
+      </c>
+      <c r="G27" s="50">
+        <f t="shared" si="6"/>
+        <v>9.0497737556561094E-3</v>
+      </c>
+      <c r="H27" s="50">
+        <f t="shared" si="6"/>
+        <v>9.0497737556561094E-3</v>
+      </c>
+      <c r="I27" s="50">
+        <f t="shared" si="6"/>
+        <v>4.5248868778280547E-3</v>
+      </c>
+      <c r="J27" s="50">
+        <f t="shared" si="6"/>
+        <v>3.0165912518853697E-3</v>
+      </c>
+      <c r="K27" s="50">
+        <f t="shared" si="6"/>
+        <v>3.0165912518853697E-3</v>
+      </c>
+      <c r="L27" s="50">
+        <f t="shared" si="6"/>
+        <v>3.0165912518853697E-3</v>
+      </c>
+      <c r="M27" s="50">
+        <f t="shared" si="6"/>
+        <v>3.0165912518853697E-3</v>
+      </c>
+      <c r="N27" s="50">
+        <f t="shared" si="6"/>
+        <v>3.0165912518853697E-3</v>
+      </c>
+      <c r="O27" s="51">
+        <f t="shared" si="6"/>
+        <v>3.0165912518853697E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
         <v>7</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B28" s="36">
         <v>7</v>
       </c>
-      <c r="C10" s="1">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0</v>
-      </c>
-      <c r="J10" s="1">
-        <v>0</v>
-      </c>
-      <c r="K10" s="1">
-        <v>0</v>
-      </c>
-      <c r="L10" s="1">
-        <v>0</v>
-      </c>
-      <c r="M10" s="1">
-        <v>0</v>
-      </c>
-      <c r="N10" s="1">
-        <v>0</v>
-      </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="C28" s="49">
+        <f t="shared" ref="C28:O28" si="7">C10/$D$17</f>
+        <v>9.0497737556561094E-3</v>
+      </c>
+      <c r="D28" s="50">
+        <f t="shared" si="7"/>
+        <v>9.0497737556561094E-3</v>
+      </c>
+      <c r="E28" s="50">
+        <f t="shared" si="7"/>
+        <v>9.0497737556561094E-3</v>
+      </c>
+      <c r="F28" s="50">
+        <f t="shared" si="7"/>
+        <v>9.0497737556561094E-3</v>
+      </c>
+      <c r="G28" s="50">
+        <f t="shared" si="7"/>
+        <v>9.0497737556561094E-3</v>
+      </c>
+      <c r="H28" s="50">
+        <f t="shared" si="7"/>
+        <v>9.0497737556561094E-3</v>
+      </c>
+      <c r="I28" s="50">
+        <f t="shared" si="7"/>
+        <v>9.0497737556561094E-3</v>
+      </c>
+      <c r="J28" s="50">
+        <f t="shared" si="7"/>
+        <v>4.5248868778280547E-3</v>
+      </c>
+      <c r="K28" s="50">
+        <f t="shared" si="7"/>
+        <v>3.0165912518853697E-3</v>
+      </c>
+      <c r="L28" s="50">
+        <f t="shared" si="7"/>
+        <v>3.0165912518853697E-3</v>
+      </c>
+      <c r="M28" s="50">
+        <f t="shared" si="7"/>
+        <v>3.0165912518853697E-3</v>
+      </c>
+      <c r="N28" s="50">
+        <f t="shared" si="7"/>
+        <v>3.0165912518853697E-3</v>
+      </c>
+      <c r="O28" s="51">
+        <f t="shared" si="7"/>
+        <v>3.0165912518853697E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
         <v>8</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B29" s="36">
         <v>6</v>
       </c>
-      <c r="C11" s="1">
-        <v>0</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1">
-        <v>1</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0</v>
-      </c>
-      <c r="J11" s="1">
-        <v>0</v>
-      </c>
-      <c r="K11" s="1">
-        <v>0</v>
-      </c>
-      <c r="L11" s="1">
-        <v>0</v>
-      </c>
-      <c r="M11" s="1">
-        <v>0</v>
-      </c>
-      <c r="N11" s="1">
-        <v>0</v>
-      </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="C29" s="49">
+        <f t="shared" ref="C29:O29" si="8">C11/$D$17</f>
+        <v>9.0497737556561094E-3</v>
+      </c>
+      <c r="D29" s="50">
+        <f t="shared" si="8"/>
+        <v>9.0497737556561094E-3</v>
+      </c>
+      <c r="E29" s="50">
+        <f t="shared" si="8"/>
+        <v>9.0497737556561094E-3</v>
+      </c>
+      <c r="F29" s="50">
+        <f t="shared" si="8"/>
+        <v>9.0497737556561094E-3</v>
+      </c>
+      <c r="G29" s="50">
+        <f t="shared" si="8"/>
+        <v>9.0497737556561094E-3</v>
+      </c>
+      <c r="H29" s="50">
+        <f t="shared" si="8"/>
+        <v>9.0497737556561094E-3</v>
+      </c>
+      <c r="I29" s="50">
+        <f t="shared" si="8"/>
+        <v>9.0497737556561094E-3</v>
+      </c>
+      <c r="J29" s="50">
+        <f t="shared" si="8"/>
+        <v>9.0497737556561094E-3</v>
+      </c>
+      <c r="K29" s="50">
+        <f t="shared" si="8"/>
+        <v>4.5248868778280547E-3</v>
+      </c>
+      <c r="L29" s="50">
+        <f t="shared" si="8"/>
+        <v>3.0165912518853697E-3</v>
+      </c>
+      <c r="M29" s="50">
+        <f t="shared" si="8"/>
+        <v>3.0165912518853697E-3</v>
+      </c>
+      <c r="N29" s="50">
+        <f t="shared" si="8"/>
+        <v>3.0165912518853697E-3</v>
+      </c>
+      <c r="O29" s="51">
+        <f t="shared" si="8"/>
+        <v>3.0165912518853697E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
         <v>9</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B30" s="36">
         <v>5</v>
       </c>
-      <c r="C12" s="1">
-        <v>0</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0</v>
-      </c>
-      <c r="J12" s="1">
-        <v>0</v>
-      </c>
-      <c r="K12" s="1">
-        <v>0</v>
-      </c>
-      <c r="L12" s="1">
-        <v>0</v>
-      </c>
-      <c r="M12" s="1">
-        <v>0</v>
-      </c>
-      <c r="N12" s="1">
-        <v>0</v>
-      </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="C30" s="49">
+        <f t="shared" ref="C30:O30" si="9">C12/$D$17</f>
+        <v>9.0497737556561094E-3</v>
+      </c>
+      <c r="D30" s="50">
+        <f t="shared" si="9"/>
+        <v>9.0497737556561094E-3</v>
+      </c>
+      <c r="E30" s="50">
+        <f t="shared" si="9"/>
+        <v>9.0497737556561094E-3</v>
+      </c>
+      <c r="F30" s="50">
+        <f t="shared" si="9"/>
+        <v>9.0497737556561094E-3</v>
+      </c>
+      <c r="G30" s="50">
+        <f t="shared" si="9"/>
+        <v>9.0497737556561094E-3</v>
+      </c>
+      <c r="H30" s="50">
+        <f t="shared" si="9"/>
+        <v>9.0497737556561094E-3</v>
+      </c>
+      <c r="I30" s="50">
+        <f t="shared" si="9"/>
+        <v>9.0497737556561094E-3</v>
+      </c>
+      <c r="J30" s="50">
+        <f t="shared" si="9"/>
+        <v>9.0497737556561094E-3</v>
+      </c>
+      <c r="K30" s="50">
+        <f t="shared" si="9"/>
+        <v>9.0497737556561094E-3</v>
+      </c>
+      <c r="L30" s="50">
+        <f t="shared" si="9"/>
+        <v>4.5248868778280547E-3</v>
+      </c>
+      <c r="M30" s="50">
+        <f t="shared" si="9"/>
+        <v>3.0165912518853697E-3</v>
+      </c>
+      <c r="N30" s="50">
+        <f t="shared" si="9"/>
+        <v>3.0165912518853697E-3</v>
+      </c>
+      <c r="O30" s="51">
+        <f t="shared" si="9"/>
+        <v>3.0165912518853697E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
         <v>10</v>
       </c>
-      <c r="B13" s="1">
-        <v>4</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0</v>
-      </c>
-      <c r="J13" s="1">
-        <v>0</v>
-      </c>
-      <c r="K13" s="1">
-        <v>0</v>
-      </c>
-      <c r="L13" s="1">
-        <v>0</v>
-      </c>
-      <c r="M13" s="1">
-        <v>0</v>
-      </c>
-      <c r="N13" s="1">
-        <v>0</v>
-      </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="B31" s="36">
+        <v>4</v>
+      </c>
+      <c r="C31" s="49">
+        <f t="shared" ref="C31:O31" si="10">C13/$D$17</f>
+        <v>9.0497737556561094E-3</v>
+      </c>
+      <c r="D31" s="50">
+        <f t="shared" si="10"/>
+        <v>9.0497737556561094E-3</v>
+      </c>
+      <c r="E31" s="50">
+        <f t="shared" si="10"/>
+        <v>9.0497737556561094E-3</v>
+      </c>
+      <c r="F31" s="50">
+        <f t="shared" si="10"/>
+        <v>9.0497737556561094E-3</v>
+      </c>
+      <c r="G31" s="50">
+        <f t="shared" si="10"/>
+        <v>9.0497737556561094E-3</v>
+      </c>
+      <c r="H31" s="50">
+        <f t="shared" si="10"/>
+        <v>9.0497737556561094E-3</v>
+      </c>
+      <c r="I31" s="50">
+        <f t="shared" si="10"/>
+        <v>9.0497737556561094E-3</v>
+      </c>
+      <c r="J31" s="50">
+        <f t="shared" si="10"/>
+        <v>9.0497737556561094E-3</v>
+      </c>
+      <c r="K31" s="50">
+        <f t="shared" si="10"/>
+        <v>9.0497737556561094E-3</v>
+      </c>
+      <c r="L31" s="50">
+        <f t="shared" si="10"/>
+        <v>9.0497737556561094E-3</v>
+      </c>
+      <c r="M31" s="50">
+        <f t="shared" si="10"/>
+        <v>4.5248868778280547E-3</v>
+      </c>
+      <c r="N31" s="50">
+        <f t="shared" si="10"/>
+        <v>3.0165912518853697E-3</v>
+      </c>
+      <c r="O31" s="51">
+        <f t="shared" si="10"/>
+        <v>3.0165912518853697E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
         <v>11</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B32" s="36">
         <v>3</v>
       </c>
-      <c r="C14" s="1">
-        <v>0</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0</v>
-      </c>
-      <c r="E14" s="1">
+      <c r="C32" s="49">
+        <f t="shared" ref="C32:O32" si="11">C14/$D$17</f>
+        <v>9.0497737556561094E-3</v>
+      </c>
+      <c r="D32" s="50">
+        <f t="shared" si="11"/>
+        <v>9.0497737556561094E-3</v>
+      </c>
+      <c r="E32" s="50">
+        <f t="shared" si="11"/>
+        <v>9.0497737556561094E-3</v>
+      </c>
+      <c r="F32" s="50">
+        <f t="shared" si="11"/>
+        <v>9.0497737556561094E-3</v>
+      </c>
+      <c r="G32" s="50">
+        <f t="shared" si="11"/>
+        <v>9.0497737556561094E-3</v>
+      </c>
+      <c r="H32" s="50">
+        <f t="shared" si="11"/>
+        <v>9.0497737556561094E-3</v>
+      </c>
+      <c r="I32" s="50">
+        <f t="shared" si="11"/>
+        <v>9.0497737556561094E-3</v>
+      </c>
+      <c r="J32" s="50">
+        <f t="shared" si="11"/>
+        <v>9.0497737556561094E-3</v>
+      </c>
+      <c r="K32" s="50">
+        <f t="shared" si="11"/>
+        <v>9.0497737556561094E-3</v>
+      </c>
+      <c r="L32" s="50">
+        <f t="shared" si="11"/>
+        <v>9.0497737556561094E-3</v>
+      </c>
+      <c r="M32" s="50">
+        <f t="shared" si="11"/>
+        <v>9.0497737556561094E-3</v>
+      </c>
+      <c r="N32" s="50">
+        <f t="shared" si="11"/>
+        <v>4.5248868778280547E-3</v>
+      </c>
+      <c r="O32" s="51">
+        <f t="shared" si="11"/>
+        <v>3.0165912518853697E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <v>12</v>
+      </c>
+      <c r="B33" s="37">
         <v>2</v>
       </c>
-      <c r="F14" s="1">
-        <v>1</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0</v>
-      </c>
-      <c r="I14" s="1">
-        <v>0</v>
-      </c>
-      <c r="J14" s="1">
-        <v>0</v>
-      </c>
-      <c r="K14" s="1">
-        <v>0</v>
-      </c>
-      <c r="L14" s="1">
-        <v>0</v>
-      </c>
-      <c r="M14" s="1">
-        <v>0</v>
-      </c>
-      <c r="N14" s="1">
-        <v>0</v>
-      </c>
-      <c r="O14" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>12</v>
-      </c>
-      <c r="B15" s="1">
-        <v>2</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0</v>
-      </c>
-      <c r="I15" s="1">
-        <v>0</v>
-      </c>
-      <c r="J15" s="1">
-        <v>0</v>
-      </c>
-      <c r="K15" s="1">
-        <v>0</v>
-      </c>
-      <c r="L15" s="1">
-        <v>1</v>
-      </c>
-      <c r="M15" s="1">
-        <v>0</v>
-      </c>
-      <c r="N15" s="1">
-        <v>0</v>
-      </c>
-      <c r="O15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>5</v>
+      <c r="C33" s="52">
+        <f t="shared" ref="C33:O33" si="12">C15/$D$17</f>
+        <v>9.0497737556561094E-3</v>
+      </c>
+      <c r="D33" s="53">
+        <f t="shared" si="12"/>
+        <v>9.0497737556561094E-3</v>
+      </c>
+      <c r="E33" s="53">
+        <f t="shared" si="12"/>
+        <v>9.0497737556561094E-3</v>
+      </c>
+      <c r="F33" s="53">
+        <f t="shared" si="12"/>
+        <v>9.0497737556561094E-3</v>
+      </c>
+      <c r="G33" s="53">
+        <f t="shared" si="12"/>
+        <v>9.0497737556561094E-3</v>
+      </c>
+      <c r="H33" s="53">
+        <f t="shared" si="12"/>
+        <v>9.0497737556561094E-3</v>
+      </c>
+      <c r="I33" s="53">
+        <f t="shared" si="12"/>
+        <v>9.0497737556561094E-3</v>
+      </c>
+      <c r="J33" s="53">
+        <f t="shared" si="12"/>
+        <v>9.0497737556561094E-3</v>
+      </c>
+      <c r="K33" s="53">
+        <f t="shared" si="12"/>
+        <v>9.0497737556561094E-3</v>
+      </c>
+      <c r="L33" s="53">
+        <f t="shared" si="12"/>
+        <v>9.0497737556561094E-3</v>
+      </c>
+      <c r="M33" s="53">
+        <f t="shared" si="12"/>
+        <v>9.0497737556561094E-3</v>
+      </c>
+      <c r="N33" s="53">
+        <f t="shared" si="12"/>
+        <v>9.0497737556561094E-3</v>
+      </c>
+      <c r="O33" s="54">
+        <f t="shared" si="12"/>
+        <v>4.5248868778280547E-3</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B17:C17"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{190CB9DB-DCAC-4B6E-A761-262772A6F35C}">
+  <dimension ref="B1:W10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="6" width="5.625" customWidth="1"/>
+    <col min="7" max="7" width="5.625" style="8" customWidth="1"/>
+    <col min="8" max="23" width="5.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="3">
+        <v>23456</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="12">
+        <v>34567</v>
+      </c>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="14"/>
+      <c r="S2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="14"/>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="16">
+        <v>2</v>
+      </c>
+      <c r="D3" s="16">
+        <v>3</v>
+      </c>
+      <c r="E3" s="16">
+        <v>4</v>
+      </c>
+      <c r="F3" s="17"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="18">
+        <v>2</v>
+      </c>
+      <c r="I3" s="19">
+        <v>3</v>
+      </c>
+      <c r="J3" s="19">
+        <v>4</v>
+      </c>
+      <c r="K3" s="19"/>
+      <c r="L3" s="20">
+        <v>6</v>
+      </c>
+      <c r="M3" s="18">
+        <v>3</v>
+      </c>
+      <c r="N3" s="19">
+        <v>4</v>
+      </c>
+      <c r="O3" s="19">
+        <v>5</v>
+      </c>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="20">
+        <v>7</v>
+      </c>
+      <c r="R3" s="21"/>
+      <c r="S3" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="T3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="U3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="V3" s="16"/>
+      <c r="W3" s="17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B4" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="16">
+        <v>2</v>
+      </c>
+      <c r="D4" s="16">
+        <v>3</v>
+      </c>
+      <c r="E4" s="16"/>
+      <c r="F4" s="17">
+        <v>5</v>
+      </c>
+      <c r="G4" s="28"/>
+      <c r="H4" s="18">
+        <v>2</v>
+      </c>
+      <c r="I4" s="19">
+        <v>3</v>
+      </c>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19">
+        <v>5</v>
+      </c>
+      <c r="L4" s="20">
+        <v>6</v>
+      </c>
+      <c r="M4" s="18">
+        <v>3</v>
+      </c>
+      <c r="N4" s="19">
+        <v>4</v>
+      </c>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19">
+        <v>6</v>
+      </c>
+      <c r="Q4" s="20">
+        <v>7</v>
+      </c>
+      <c r="R4" s="21"/>
+      <c r="S4" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="T4" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="U4" s="16"/>
+      <c r="V4" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="W4" s="17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="16">
+        <v>2</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16">
+        <v>4</v>
+      </c>
+      <c r="F5" s="17">
+        <v>5</v>
+      </c>
+      <c r="G5" s="28"/>
+      <c r="H5" s="22">
+        <v>2</v>
+      </c>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23">
+        <v>4</v>
+      </c>
+      <c r="K5" s="23">
+        <v>5</v>
+      </c>
+      <c r="L5" s="24">
+        <v>6</v>
+      </c>
+      <c r="M5" s="22">
+        <v>3</v>
+      </c>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23">
+        <v>5</v>
+      </c>
+      <c r="P5" s="23">
+        <v>6</v>
+      </c>
+      <c r="Q5" s="24">
+        <v>7</v>
+      </c>
+      <c r="R5" s="21"/>
+      <c r="S5" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="T5" s="16"/>
+      <c r="U5" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="V5" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="W5" s="17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26">
+        <v>3</v>
+      </c>
+      <c r="E6" s="26">
+        <v>4</v>
+      </c>
+      <c r="F6" s="27">
+        <v>5</v>
+      </c>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="U6" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="V6" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="W6" s="27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B8" s="29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="S2:W2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCD7351C-483F-4801-ADC8-2998A448B0B5}">
+  <dimension ref="A1:E32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="5" width="9" style="30"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="30">
+        <v>2</v>
+      </c>
+      <c r="C1" s="30">
+        <v>3</v>
+      </c>
+      <c r="D1" s="30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="30">
+        <v>2</v>
+      </c>
+      <c r="C2" s="30">
+        <v>3</v>
+      </c>
+      <c r="E2" s="30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="30">
+        <v>2</v>
+      </c>
+      <c r="D3" s="30">
+        <v>4</v>
+      </c>
+      <c r="E3" s="30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="30">
+        <v>3</v>
+      </c>
+      <c r="D4" s="30">
+        <v>4</v>
+      </c>
+      <c r="E4" s="30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="30">
+        <v>2</v>
+      </c>
+      <c r="B5" s="30">
+        <v>3</v>
+      </c>
+      <c r="C5" s="30">
+        <v>4</v>
+      </c>
+      <c r="E5" s="30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="30">
+        <v>2</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="30">
+        <v>2</v>
+      </c>
+      <c r="C7" s="30">
+        <v>4</v>
+      </c>
+      <c r="D7" s="30">
+        <v>5</v>
+      </c>
+      <c r="E7" s="30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="30">
+        <v>3</v>
+      </c>
+      <c r="B8" s="30">
+        <v>4</v>
+      </c>
+      <c r="C8" s="30">
+        <v>5</v>
+      </c>
+      <c r="E8" s="30">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="30">
+        <v>3</v>
+      </c>
+      <c r="B9" s="30">
+        <v>4</v>
+      </c>
+      <c r="D9" s="30">
+        <v>6</v>
+      </c>
+      <c r="E9" s="30">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="30">
+        <v>3</v>
+      </c>
+      <c r="C10" s="30">
+        <v>5</v>
+      </c>
+      <c r="D10" s="30">
+        <v>6</v>
+      </c>
+      <c r="E10" s="30">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="30">
+        <v>4</v>
+      </c>
+      <c r="B11" s="30">
+        <v>5</v>
+      </c>
+      <c r="C11" s="30">
+        <v>6</v>
+      </c>
+      <c r="E11" s="30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="30">
+        <v>4</v>
+      </c>
+      <c r="B12" s="30">
+        <v>5</v>
+      </c>
+      <c r="D12" s="30">
+        <v>7</v>
+      </c>
+      <c r="E12" s="30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="30">
+        <v>4</v>
+      </c>
+      <c r="C13" s="30">
+        <v>6</v>
+      </c>
+      <c r="D13" s="30">
+        <v>7</v>
+      </c>
+      <c r="E13" s="30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="30">
+        <v>5</v>
+      </c>
+      <c r="B14" s="30">
+        <v>6</v>
+      </c>
+      <c r="C14" s="30">
+        <v>7</v>
+      </c>
+      <c r="E14" s="30">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="30">
+        <v>5</v>
+      </c>
+      <c r="B15" s="30">
+        <v>6</v>
+      </c>
+      <c r="D15" s="30">
+        <v>8</v>
+      </c>
+      <c r="E15" s="30">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="30">
+        <v>5</v>
+      </c>
+      <c r="C16" s="30">
+        <v>7</v>
+      </c>
+      <c r="D16" s="30">
+        <v>8</v>
+      </c>
+      <c r="E16" s="30">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="30">
+        <v>6</v>
+      </c>
+      <c r="B17" s="30">
+        <v>7</v>
+      </c>
+      <c r="C17" s="30">
+        <v>8</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="30">
+        <v>6</v>
+      </c>
+      <c r="B18" s="30">
+        <v>7</v>
+      </c>
+      <c r="D18" s="30">
+        <v>9</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="30">
+        <v>6</v>
+      </c>
+      <c r="C19" s="30">
+        <v>8</v>
+      </c>
+      <c r="D19" s="30">
+        <v>9</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="30">
+        <v>7</v>
+      </c>
+      <c r="B20" s="30">
+        <v>8</v>
+      </c>
+      <c r="C20" s="30">
+        <v>9</v>
+      </c>
+      <c r="E20" s="30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="30">
+        <v>7</v>
+      </c>
+      <c r="B21" s="30">
+        <v>8</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="30">
+        <v>7</v>
+      </c>
+      <c r="C22" s="30">
+        <v>9</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="30">
+        <v>8</v>
+      </c>
+      <c r="B23" s="30">
+        <v>9</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="30">
+        <v>8</v>
+      </c>
+      <c r="B24" s="30">
+        <v>9</v>
+      </c>
+      <c r="D24" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="30">
+        <v>8</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="30">
+        <v>9</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="30" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="30">
+        <v>9</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" s="30" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="30">
+        <v>9</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" s="30" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="30" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="30" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" s="30" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32" s="30" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="B6 D6:E6" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A55DA2DF-A418-41B6-A536-2C3A196CE178}">
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1687,4 +4182,1970 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E41081A5-9217-42B7-82C0-9E1413A4738E}">
+  <dimension ref="A1:N9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="5" width="9" style="1"/>
+    <col min="7" max="9" width="9" customWidth="1"/>
+    <col min="10" max="10" width="7.5" customWidth="1"/>
+    <col min="11" max="11" width="11.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1"/>
+      <c r="K1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2">
+        <f>(50*49*48)/(3*2)</f>
+        <v>19600</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1">
+        <v>45</v>
+      </c>
+      <c r="C3" s="1">
+        <f>78*B3</f>
+        <v>3510</v>
+      </c>
+      <c r="D3" s="1">
+        <v>45</v>
+      </c>
+      <c r="E3" s="1">
+        <f>78*D3</f>
+        <v>3510</v>
+      </c>
+      <c r="F3">
+        <f>2*12*6</f>
+        <v>144</v>
+      </c>
+      <c r="G3">
+        <f>13*F3</f>
+        <v>1872</v>
+      </c>
+      <c r="H3">
+        <f>C3+E3+G3</f>
+        <v>8892</v>
+      </c>
+      <c r="I3" s="31">
+        <f>H3/$N$1</f>
+        <v>0.4536734693877551</v>
+      </c>
+      <c r="J3" s="31"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" ref="E4:E16" si="0">78*D4</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="58">
+        <f>COMBIN(52,5)</f>
+        <v>2598960</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K5" s="58">
+        <f>COMBIN(52,2)*COMBIN(50,3)</f>
+        <v>25989600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <f>0.6^5</f>
+        <v>7.7759999999999996E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="K1:M2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{467FD43E-98DE-4707-ABBB-843610AD9E75}">
+  <dimension ref="A1:R34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17:E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" customWidth="1"/>
+    <col min="17" max="17" width="9.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1"/>
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1">
+        <v>8</v>
+      </c>
+      <c r="L1" s="1">
+        <v>9</v>
+      </c>
+      <c r="M1" s="1">
+        <v>10</v>
+      </c>
+      <c r="N1" s="1">
+        <v>11</v>
+      </c>
+      <c r="O1" s="1">
+        <v>12</v>
+      </c>
+      <c r="R1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="44">
+        <v>9</v>
+      </c>
+      <c r="I2" s="44">
+        <v>8</v>
+      </c>
+      <c r="J2" s="44">
+        <v>7</v>
+      </c>
+      <c r="K2" s="44">
+        <v>6</v>
+      </c>
+      <c r="L2" s="44">
+        <v>5</v>
+      </c>
+      <c r="M2" s="44">
+        <v>4</v>
+      </c>
+      <c r="N2" s="44">
+        <v>3</v>
+      </c>
+      <c r="O2" s="45">
+        <v>2</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R2" s="21">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="9">
+        <f>$R$4</f>
+        <v>144</v>
+      </c>
+      <c r="D3" s="10">
+        <f>$R$2</f>
+        <v>18</v>
+      </c>
+      <c r="E3" s="10">
+        <f t="shared" ref="E3:O14" si="0">$R$2</f>
+        <v>18</v>
+      </c>
+      <c r="F3" s="10">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="G3" s="10">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="H3" s="10">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="I3" s="10">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="J3" s="10">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="K3" s="10">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="L3" s="10">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="M3" s="10">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="N3" s="10">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="O3" s="11">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R3" s="21">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="15">
+        <f>$R$3</f>
+        <v>18</v>
+      </c>
+      <c r="D4" s="16">
+        <f>$R$4</f>
+        <v>144</v>
+      </c>
+      <c r="E4" s="40">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="F4" s="40">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="G4" s="40">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="H4" s="40">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="I4" s="40">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="J4" s="40">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="K4" s="40">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="L4" s="40">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="M4" s="40">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="N4" s="40">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="O4" s="41">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R4" s="21">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="15">
+        <f t="shared" ref="C5:N15" si="1">$R$3</f>
+        <v>18</v>
+      </c>
+      <c r="D5" s="34">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="E5" s="16">
+        <f>$R$4</f>
+        <v>144</v>
+      </c>
+      <c r="F5" s="40">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="G5" s="40">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="H5" s="40">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="I5" s="40">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="J5" s="40">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="K5" s="40">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="L5" s="40">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="M5" s="40">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="N5" s="40">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="O5" s="41">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="15">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="D6" s="34">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="E6" s="34">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="F6" s="16">
+        <f>$R$4</f>
+        <v>144</v>
+      </c>
+      <c r="G6" s="40">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="H6" s="40">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="I6" s="40">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="J6" s="40">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="K6" s="40">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="L6" s="40">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="M6" s="40">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="N6" s="40">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="O6" s="41">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="15">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="D7" s="34">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="E7" s="34">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="F7" s="34">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="G7" s="16">
+        <f>$R$4</f>
+        <v>144</v>
+      </c>
+      <c r="H7" s="40">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="I7" s="40">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="J7" s="40">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="K7" s="40">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="L7" s="40">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="M7" s="40">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="N7" s="40">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="O7" s="41">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="36">
+        <v>9</v>
+      </c>
+      <c r="C8" s="15">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="D8" s="34">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="E8" s="34">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="F8" s="34">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="G8" s="34">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="H8" s="16">
+        <f>$R$4</f>
+        <v>144</v>
+      </c>
+      <c r="I8" s="40">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="J8" s="40">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="K8" s="40">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="L8" s="40">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="M8" s="40">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="N8" s="40">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="O8" s="41">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" s="36">
+        <v>8</v>
+      </c>
+      <c r="C9" s="15">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="D9" s="34">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="E9" s="34">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="F9" s="34">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="G9" s="34">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="H9" s="34">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="I9" s="16">
+        <f>$R$4</f>
+        <v>144</v>
+      </c>
+      <c r="J9" s="40">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="K9" s="40">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="L9" s="40">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="M9" s="40">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="N9" s="40">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="O9" s="41">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="B10" s="36">
+        <v>7</v>
+      </c>
+      <c r="C10" s="15">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="D10" s="34">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="E10" s="34">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="F10" s="34">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="G10" s="34">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="H10" s="34">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="I10" s="34">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="J10" s="16">
+        <f>$R$4</f>
+        <v>144</v>
+      </c>
+      <c r="K10" s="40">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="L10" s="40">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="M10" s="40">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="N10" s="40">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="O10" s="41">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="B11" s="36">
+        <v>6</v>
+      </c>
+      <c r="C11" s="15">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="D11" s="34">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="E11" s="34">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="F11" s="34">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="G11" s="34">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="H11" s="34">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="I11" s="34">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="J11" s="34">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="K11" s="16">
+        <f>$R$4</f>
+        <v>144</v>
+      </c>
+      <c r="L11" s="40">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="M11" s="40">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="N11" s="40">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="O11" s="41">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>9</v>
+      </c>
+      <c r="B12" s="36">
+        <v>5</v>
+      </c>
+      <c r="C12" s="15">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="D12" s="34">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="E12" s="34">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="F12" s="34">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="G12" s="34">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="H12" s="34">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="I12" s="34">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="J12" s="34">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="K12" s="34">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="L12" s="16">
+        <f>$R$4</f>
+        <v>144</v>
+      </c>
+      <c r="M12" s="40">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="N12" s="40">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="O12" s="41">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>10</v>
+      </c>
+      <c r="B13" s="36">
+        <v>4</v>
+      </c>
+      <c r="C13" s="15">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="D13" s="34">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="E13" s="34">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="F13" s="34">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="G13" s="34">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="H13" s="34">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="I13" s="34">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="J13" s="34">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="K13" s="34">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="L13" s="34">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="M13" s="16">
+        <f>$R$4</f>
+        <v>144</v>
+      </c>
+      <c r="N13" s="40">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="O13" s="41">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>11</v>
+      </c>
+      <c r="B14" s="36">
+        <v>3</v>
+      </c>
+      <c r="C14" s="15">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="D14" s="34">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="E14" s="34">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="F14" s="34">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="G14" s="34">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="H14" s="34">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="I14" s="34">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="J14" s="34">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="K14" s="34">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="L14" s="34">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="M14" s="34">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="N14" s="16">
+        <f>$R$4</f>
+        <v>144</v>
+      </c>
+      <c r="O14" s="41">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>12</v>
+      </c>
+      <c r="B15" s="37">
+        <v>2</v>
+      </c>
+      <c r="C15" s="25">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="D15" s="35">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="E15" s="35">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="F15" s="35">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="G15" s="35">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="H15" s="35">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="I15" s="35">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="J15" s="35">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="K15" s="35">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="L15" s="35">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="M15" s="35">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="N15" s="35">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="O15" s="27">
+        <f>$R$4</f>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="59">
+        <f>19600*1326</f>
+        <v>25989600</v>
+      </c>
+      <c r="E17" s="60"/>
+      <c r="L17" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M17" s="7"/>
+      <c r="N17" s="78">
+        <f>SUM(C22:O34)</f>
+        <v>1.800720288115246E-4</v>
+      </c>
+      <c r="O17" s="7"/>
+    </row>
+    <row r="18" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="56"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="62"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="57"/>
+      <c r="N18" s="56"/>
+      <c r="O18" s="57"/>
+    </row>
+    <row r="20" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="1"/>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2</v>
+      </c>
+      <c r="F20" s="1">
+        <v>3</v>
+      </c>
+      <c r="G20" s="1">
+        <v>4</v>
+      </c>
+      <c r="H20" s="1">
+        <v>5</v>
+      </c>
+      <c r="I20" s="1">
+        <v>6</v>
+      </c>
+      <c r="J20" s="1">
+        <v>7</v>
+      </c>
+      <c r="K20" s="1">
+        <v>8</v>
+      </c>
+      <c r="L20" s="1">
+        <v>9</v>
+      </c>
+      <c r="M20" s="1">
+        <v>10</v>
+      </c>
+      <c r="N20" s="1">
+        <v>11</v>
+      </c>
+      <c r="O20" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1"/>
+      <c r="B21" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="68">
+        <v>9</v>
+      </c>
+      <c r="I21" s="68">
+        <v>8</v>
+      </c>
+      <c r="J21" s="68">
+        <v>7</v>
+      </c>
+      <c r="K21" s="68">
+        <v>6</v>
+      </c>
+      <c r="L21" s="68">
+        <v>5</v>
+      </c>
+      <c r="M21" s="68">
+        <v>4</v>
+      </c>
+      <c r="N21" s="68">
+        <v>3</v>
+      </c>
+      <c r="O21" s="69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>0</v>
+      </c>
+      <c r="B22" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="63">
+        <f>C3/$D$17</f>
+        <v>5.5406778095853722E-6</v>
+      </c>
+      <c r="D22" s="71">
+        <f t="shared" ref="D22:O22" si="2">D3/$D$17</f>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="E22" s="71">
+        <f t="shared" si="2"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="F22" s="71">
+        <f t="shared" si="2"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="G22" s="71">
+        <f t="shared" si="2"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="H22" s="71">
+        <f t="shared" si="2"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="I22" s="71">
+        <f t="shared" si="2"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="J22" s="71">
+        <f t="shared" si="2"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="K22" s="71">
+        <f t="shared" si="2"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="L22" s="71">
+        <f t="shared" si="2"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="M22" s="71">
+        <f t="shared" si="2"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="N22" s="71">
+        <f t="shared" si="2"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="O22" s="72">
+        <f t="shared" si="2"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>1</v>
+      </c>
+      <c r="B23" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="73">
+        <f t="shared" ref="C23:O23" si="3">C4/$D$17</f>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="D23" s="70">
+        <f t="shared" si="3"/>
+        <v>5.5406778095853722E-6</v>
+      </c>
+      <c r="E23" s="70">
+        <f t="shared" si="3"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="F23" s="70">
+        <f t="shared" si="3"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="G23" s="70">
+        <f t="shared" si="3"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="H23" s="70">
+        <f t="shared" si="3"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="I23" s="70">
+        <f t="shared" si="3"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="J23" s="70">
+        <f t="shared" si="3"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="K23" s="70">
+        <f t="shared" si="3"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="L23" s="70">
+        <f t="shared" si="3"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="M23" s="70">
+        <f t="shared" si="3"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="N23" s="70">
+        <f t="shared" si="3"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="O23" s="74">
+        <f t="shared" si="3"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>2</v>
+      </c>
+      <c r="B24" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="73">
+        <f t="shared" ref="C24:O24" si="4">C5/$D$17</f>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="D24" s="70">
+        <f t="shared" si="4"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="E24" s="70">
+        <f t="shared" si="4"/>
+        <v>5.5406778095853722E-6</v>
+      </c>
+      <c r="F24" s="70">
+        <f t="shared" si="4"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="G24" s="70">
+        <f t="shared" si="4"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="H24" s="70">
+        <f t="shared" si="4"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="I24" s="70">
+        <f t="shared" si="4"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="J24" s="70">
+        <f t="shared" si="4"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="K24" s="70">
+        <f t="shared" si="4"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="L24" s="70">
+        <f t="shared" si="4"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="M24" s="70">
+        <f t="shared" si="4"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="N24" s="70">
+        <f t="shared" si="4"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="O24" s="74">
+        <f t="shared" si="4"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>3</v>
+      </c>
+      <c r="B25" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="73">
+        <f t="shared" ref="C25:O25" si="5">C6/$D$17</f>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="D25" s="70">
+        <f t="shared" si="5"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="E25" s="70">
+        <f t="shared" si="5"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="F25" s="70">
+        <f t="shared" si="5"/>
+        <v>5.5406778095853722E-6</v>
+      </c>
+      <c r="G25" s="70">
+        <f t="shared" si="5"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="H25" s="70">
+        <f t="shared" si="5"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="I25" s="70">
+        <f t="shared" si="5"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="J25" s="70">
+        <f t="shared" si="5"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="K25" s="70">
+        <f t="shared" si="5"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="L25" s="70">
+        <f t="shared" si="5"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="M25" s="70">
+        <f t="shared" si="5"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="N25" s="70">
+        <f t="shared" si="5"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="O25" s="74">
+        <f t="shared" si="5"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>4</v>
+      </c>
+      <c r="B26" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="73">
+        <f t="shared" ref="C26:O26" si="6">C7/$D$17</f>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="D26" s="70">
+        <f t="shared" si="6"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="E26" s="70">
+        <f t="shared" si="6"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="F26" s="70">
+        <f t="shared" si="6"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="G26" s="70">
+        <f t="shared" si="6"/>
+        <v>5.5406778095853722E-6</v>
+      </c>
+      <c r="H26" s="70">
+        <f t="shared" si="6"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="I26" s="70">
+        <f t="shared" si="6"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="J26" s="70">
+        <f t="shared" si="6"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="K26" s="70">
+        <f t="shared" si="6"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="L26" s="70">
+        <f t="shared" si="6"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="M26" s="70">
+        <f t="shared" si="6"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="N26" s="70">
+        <f t="shared" si="6"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="O26" s="74">
+        <f t="shared" si="6"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>5</v>
+      </c>
+      <c r="B27" s="65">
+        <v>9</v>
+      </c>
+      <c r="C27" s="73">
+        <f t="shared" ref="C27:O27" si="7">C8/$D$17</f>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="D27" s="70">
+        <f t="shared" si="7"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="E27" s="70">
+        <f t="shared" si="7"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="F27" s="70">
+        <f t="shared" si="7"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="G27" s="70">
+        <f t="shared" si="7"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="H27" s="70">
+        <f t="shared" si="7"/>
+        <v>5.5406778095853722E-6</v>
+      </c>
+      <c r="I27" s="70">
+        <f t="shared" si="7"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="J27" s="70">
+        <f t="shared" si="7"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="K27" s="70">
+        <f t="shared" si="7"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="L27" s="70">
+        <f t="shared" si="7"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="M27" s="70">
+        <f t="shared" si="7"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="N27" s="70">
+        <f t="shared" si="7"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="O27" s="74">
+        <f t="shared" si="7"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>6</v>
+      </c>
+      <c r="B28" s="65">
+        <v>8</v>
+      </c>
+      <c r="C28" s="73">
+        <f t="shared" ref="C28:O28" si="8">C9/$D$17</f>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="D28" s="70">
+        <f t="shared" si="8"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="E28" s="70">
+        <f t="shared" si="8"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="F28" s="70">
+        <f t="shared" si="8"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="G28" s="70">
+        <f t="shared" si="8"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="H28" s="70">
+        <f t="shared" si="8"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="I28" s="70">
+        <f t="shared" si="8"/>
+        <v>5.5406778095853722E-6</v>
+      </c>
+      <c r="J28" s="70">
+        <f t="shared" si="8"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="K28" s="70">
+        <f t="shared" si="8"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="L28" s="70">
+        <f t="shared" si="8"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="M28" s="70">
+        <f t="shared" si="8"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="N28" s="70">
+        <f t="shared" si="8"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="O28" s="74">
+        <f t="shared" si="8"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>7</v>
+      </c>
+      <c r="B29" s="65">
+        <v>7</v>
+      </c>
+      <c r="C29" s="73">
+        <f t="shared" ref="C29:O29" si="9">C10/$D$17</f>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="D29" s="70">
+        <f t="shared" si="9"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="E29" s="70">
+        <f t="shared" si="9"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="F29" s="70">
+        <f t="shared" si="9"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="G29" s="70">
+        <f t="shared" si="9"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="H29" s="70">
+        <f t="shared" si="9"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="I29" s="70">
+        <f t="shared" si="9"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="J29" s="70">
+        <f t="shared" si="9"/>
+        <v>5.5406778095853722E-6</v>
+      </c>
+      <c r="K29" s="70">
+        <f t="shared" si="9"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="L29" s="70">
+        <f t="shared" si="9"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="M29" s="70">
+        <f t="shared" si="9"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="N29" s="70">
+        <f t="shared" si="9"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="O29" s="74">
+        <f t="shared" si="9"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>8</v>
+      </c>
+      <c r="B30" s="65">
+        <v>6</v>
+      </c>
+      <c r="C30" s="73">
+        <f t="shared" ref="C30:O30" si="10">C11/$D$17</f>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="D30" s="70">
+        <f t="shared" si="10"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="E30" s="70">
+        <f t="shared" si="10"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="F30" s="70">
+        <f t="shared" si="10"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="G30" s="70">
+        <f t="shared" si="10"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="H30" s="70">
+        <f t="shared" si="10"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="I30" s="70">
+        <f t="shared" si="10"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="J30" s="70">
+        <f t="shared" si="10"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="K30" s="70">
+        <f t="shared" si="10"/>
+        <v>5.5406778095853722E-6</v>
+      </c>
+      <c r="L30" s="70">
+        <f t="shared" si="10"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="M30" s="70">
+        <f t="shared" si="10"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="N30" s="70">
+        <f t="shared" si="10"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="O30" s="74">
+        <f t="shared" si="10"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>9</v>
+      </c>
+      <c r="B31" s="65">
+        <v>5</v>
+      </c>
+      <c r="C31" s="73">
+        <f t="shared" ref="C31:O31" si="11">C12/$D$17</f>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="D31" s="70">
+        <f t="shared" si="11"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="E31" s="70">
+        <f t="shared" si="11"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="F31" s="70">
+        <f t="shared" si="11"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="G31" s="70">
+        <f t="shared" si="11"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="H31" s="70">
+        <f t="shared" si="11"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="I31" s="70">
+        <f t="shared" si="11"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="J31" s="70">
+        <f t="shared" si="11"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="K31" s="70">
+        <f t="shared" si="11"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="L31" s="70">
+        <f t="shared" si="11"/>
+        <v>5.5406778095853722E-6</v>
+      </c>
+      <c r="M31" s="70">
+        <f t="shared" si="11"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="N31" s="70">
+        <f t="shared" si="11"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="O31" s="74">
+        <f t="shared" si="11"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>10</v>
+      </c>
+      <c r="B32" s="65">
+        <v>4</v>
+      </c>
+      <c r="C32" s="73">
+        <f t="shared" ref="C32:O32" si="12">C13/$D$17</f>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="D32" s="70">
+        <f t="shared" si="12"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="E32" s="70">
+        <f t="shared" si="12"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="F32" s="70">
+        <f t="shared" si="12"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="G32" s="70">
+        <f t="shared" si="12"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="H32" s="70">
+        <f t="shared" si="12"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="I32" s="70">
+        <f t="shared" si="12"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="J32" s="70">
+        <f t="shared" si="12"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="K32" s="70">
+        <f t="shared" si="12"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="L32" s="70">
+        <f t="shared" si="12"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="M32" s="70">
+        <f t="shared" si="12"/>
+        <v>5.5406778095853722E-6</v>
+      </c>
+      <c r="N32" s="70">
+        <f t="shared" si="12"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="O32" s="74">
+        <f t="shared" si="12"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>11</v>
+      </c>
+      <c r="B33" s="65">
+        <v>3</v>
+      </c>
+      <c r="C33" s="73">
+        <f t="shared" ref="C33:O33" si="13">C14/$D$17</f>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="D33" s="70">
+        <f t="shared" si="13"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="E33" s="70">
+        <f t="shared" si="13"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="F33" s="70">
+        <f t="shared" si="13"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="G33" s="70">
+        <f t="shared" si="13"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="H33" s="70">
+        <f t="shared" si="13"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="I33" s="70">
+        <f t="shared" si="13"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="J33" s="70">
+        <f t="shared" si="13"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="K33" s="70">
+        <f t="shared" si="13"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="L33" s="70">
+        <f t="shared" si="13"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="M33" s="70">
+        <f t="shared" si="13"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="N33" s="70">
+        <f t="shared" si="13"/>
+        <v>5.5406778095853722E-6</v>
+      </c>
+      <c r="O33" s="74">
+        <f t="shared" si="13"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
+        <v>12</v>
+      </c>
+      <c r="B34" s="66">
+        <v>2</v>
+      </c>
+      <c r="C34" s="75">
+        <f t="shared" ref="C34:O34" si="14">C15/$D$17</f>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="D34" s="76">
+        <f t="shared" si="14"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="E34" s="76">
+        <f t="shared" si="14"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="F34" s="76">
+        <f t="shared" si="14"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="G34" s="76">
+        <f t="shared" si="14"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="H34" s="76">
+        <f t="shared" si="14"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="I34" s="76">
+        <f t="shared" si="14"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="J34" s="76">
+        <f t="shared" si="14"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="K34" s="76">
+        <f t="shared" si="14"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="L34" s="76">
+        <f t="shared" si="14"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="M34" s="76">
+        <f t="shared" si="14"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="N34" s="76">
+        <f t="shared" si="14"/>
+        <v>6.9258472619817153E-7</v>
+      </c>
+      <c r="O34" s="77">
+        <f t="shared" si="14"/>
+        <v>5.5406778095853722E-6</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B17:C18"/>
+    <mergeCell ref="D17:E18"/>
+    <mergeCell ref="L17:M18"/>
+    <mergeCell ref="N17:O18"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/HandChart.xlsx
+++ b/HandChart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cross\Desktop\윤제호\Coding\Holdem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\chatGPT\Holdem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B0D954-BEA1-453A-BADB-E19A103FEB8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF020CD8-7908-4F33-81C6-4D55AA80B863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="7" xr2:uid="{D00D2A36-8C31-466B-8C7F-19735E980CF5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{D00D2A36-8C31-466B-8C7F-19735E980CF5}"/>
   </bookViews>
   <sheets>
     <sheet name="HoleCardOdds" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Trips" sheetId="10" r:id="rId6"/>
     <sheet name="Twopair" sheetId="11" r:id="rId7"/>
     <sheet name="Overpair" sheetId="12" r:id="rId8"/>
-    <sheet name="Toppair" sheetId="13" r:id="rId9"/>
+    <sheet name="Toppair" sheetId="14" r:id="rId9"/>
     <sheet name="Odds" sheetId="5" r:id="rId10"/>
     <sheet name="HandChart" sheetId="2" r:id="rId11"/>
     <sheet name="gutshot" sheetId="3" r:id="rId12"/>
@@ -765,7 +765,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -974,9 +974,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1301,12 +1298,12 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C1" s="1">
         <v>0</v>
       </c>
@@ -1347,7 +1344,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="23"/>
       <c r="C2" s="24" t="s">
         <v>0</v>
@@ -1389,7 +1386,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -1436,7 +1433,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1483,7 +1480,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1530,7 +1527,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1577,7 +1574,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1624,7 +1621,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1671,7 +1668,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1718,7 +1715,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1765,7 +1762,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1812,7 +1809,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1859,7 +1856,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1906,7 +1903,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1953,7 +1950,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -2000,8 +1997,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="17" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="17" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="51" t="s">
         <v>22</v>
       </c>
@@ -2011,7 +2008,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C19" s="1">
         <v>0</v>
       </c>
@@ -2052,7 +2049,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="23"/>
       <c r="C20" s="24" t="s">
         <v>0</v>
@@ -2094,7 +2091,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>0</v>
       </c>
@@ -2154,7 +2151,7 @@
         <v>3.0165912518853697E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>1</v>
       </c>
@@ -2214,7 +2211,7 @@
         <v>3.0165912518853697E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>2</v>
       </c>
@@ -2274,7 +2271,7 @@
         <v>3.0165912518853697E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>3</v>
       </c>
@@ -2334,7 +2331,7 @@
         <v>3.0165912518853697E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>4</v>
       </c>
@@ -2394,7 +2391,7 @@
         <v>3.0165912518853697E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>5</v>
       </c>
@@ -2454,7 +2451,7 @@
         <v>3.0165912518853697E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>6</v>
       </c>
@@ -2514,7 +2511,7 @@
         <v>3.0165912518853697E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>7</v>
       </c>
@@ -2574,7 +2571,7 @@
         <v>3.0165912518853697E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>8</v>
       </c>
@@ -2634,7 +2631,7 @@
         <v>3.0165912518853697E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>9</v>
       </c>
@@ -2694,7 +2691,7 @@
         <v>3.0165912518853697E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>10</v>
       </c>
@@ -2754,7 +2751,7 @@
         <v>3.0165912518853697E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>11</v>
       </c>
@@ -2814,7 +2811,7 @@
         <v>3.0165912518853697E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>12</v>
       </c>
@@ -2891,15 +2888,15 @@
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="5" width="9" style="1"/>
     <col min="7" max="9" width="9" customWidth="1"/>
     <col min="10" max="10" width="7.5" customWidth="1"/>
-    <col min="11" max="11" width="11.8984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B1" s="63" t="s">
         <v>17</v>
       </c>
@@ -2929,7 +2926,7 @@
         <v>19600</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>15</v>
       </c>
@@ -2956,7 +2953,7 @@
       <c r="M2" s="63"/>
       <c r="N2" s="63"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -2992,7 +2989,7 @@
       </c>
       <c r="J3" s="13"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -3008,13 +3005,13 @@
         <v>2598960</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="K5" s="35">
         <f>COMBIN(52,2)*COMBIN(50,3)</f>
         <v>25989600</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <f>0.6^5</f>
         <v>7.7759999999999996E-2</v>
@@ -3043,9 +3040,9 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>2</v>
       </c>
@@ -3086,7 +3083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3127,7 +3124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -3168,7 +3165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -3209,7 +3206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -3250,7 +3247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>0</v>
       </c>
@@ -3291,7 +3288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>0</v>
       </c>
@@ -3332,7 +3329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>0</v>
       </c>
@@ -3373,7 +3370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>0</v>
       </c>
@@ -3414,7 +3411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>0</v>
       </c>
@@ -3455,7 +3452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>0</v>
       </c>
@@ -3496,7 +3493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>0</v>
       </c>
@@ -3537,7 +3534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>0</v>
       </c>
@@ -3592,13 +3589,13 @@
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="23" width="5.59765625" customWidth="1"/>
+    <col min="1" max="23" width="5.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B2" s="64" t="s">
         <v>5</v>
       </c>
@@ -3629,7 +3626,7 @@
       <c r="V2" s="68"/>
       <c r="W2" s="69"/>
     </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
@@ -3685,7 +3682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>0</v>
       </c>
@@ -3741,7 +3738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="5" t="s">
         <v>0</v>
       </c>
@@ -3797,7 +3794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="8" t="s">
         <v>0</v>
       </c>
@@ -3837,12 +3834,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B8" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>8</v>
       </c>
@@ -3867,12 +3864,12 @@
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="5" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -3886,7 +3883,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
@@ -3900,7 +3897,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
@@ -3914,7 +3911,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>0</v>
       </c>
@@ -3928,7 +3925,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>2</v>
       </c>
@@ -3942,7 +3939,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>2</v>
       </c>
@@ -3956,7 +3953,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>2</v>
       </c>
@@ -3970,7 +3967,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>3</v>
       </c>
@@ -3984,7 +3981,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>3</v>
       </c>
@@ -3998,7 +3995,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>3</v>
       </c>
@@ -4012,7 +4009,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>4</v>
       </c>
@@ -4026,7 +4023,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <v>4</v>
       </c>
@@ -4040,7 +4037,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>4</v>
       </c>
@@ -4054,7 +4051,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <v>5</v>
       </c>
@@ -4068,7 +4065,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
         <v>5</v>
       </c>
@@ -4082,7 +4079,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
         <v>5</v>
       </c>
@@ -4096,7 +4093,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
         <v>6</v>
       </c>
@@ -4110,7 +4107,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="12">
         <v>6</v>
       </c>
@@ -4124,7 +4121,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
         <v>6</v>
       </c>
@@ -4138,7 +4135,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
         <v>7</v>
       </c>
@@ -4152,7 +4149,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="12">
         <v>7</v>
       </c>
@@ -4166,7 +4163,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="12">
         <v>7</v>
       </c>
@@ -4180,7 +4177,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="12">
         <v>8</v>
       </c>
@@ -4194,7 +4191,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="12">
         <v>8</v>
       </c>
@@ -4208,7 +4205,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="12">
         <v>8</v>
       </c>
@@ -4222,7 +4219,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="12">
         <v>9</v>
       </c>
@@ -4236,7 +4233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="12">
         <v>9</v>
       </c>
@@ -4250,7 +4247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="12">
         <v>9</v>
       </c>
@@ -4264,7 +4261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
         <v>4</v>
       </c>
@@ -4278,7 +4275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
         <v>4</v>
       </c>
@@ -4292,7 +4289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="12" t="s">
         <v>4</v>
       </c>
@@ -4306,7 +4303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="12" t="s">
         <v>4</v>
       </c>
@@ -4337,14 +4334,14 @@
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="17" max="17" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="C1" s="1">
         <v>0</v>
@@ -4389,7 +4386,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="23"/>
       <c r="C2" s="24" t="s">
@@ -4438,7 +4435,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -4504,7 +4501,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -4570,7 +4567,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -4630,7 +4627,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -4690,7 +4687,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -4750,7 +4747,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -4810,7 +4807,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -4870,7 +4867,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -4930,7 +4927,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -4990,7 +4987,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -5050,7 +5047,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -5110,7 +5107,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -5170,7 +5167,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -5230,10 +5227,10 @@
         <v>144</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="53" t="s">
         <v>22</v>
@@ -5251,7 +5248,7 @@
       <c r="N17" s="62"/>
       <c r="O17" s="54"/>
     </row>
-    <row r="18" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="55"/>
       <c r="C18" s="56"/>
       <c r="D18" s="59"/>
@@ -5261,7 +5258,7 @@
       <c r="N18" s="55"/>
       <c r="O18" s="56"/>
     </row>
-    <row r="20" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="C20" s="1">
         <v>0</v>
@@ -5303,7 +5300,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="23" t="s">
         <v>13</v>
@@ -5348,7 +5345,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>0</v>
       </c>
@@ -5408,7 +5405,7 @@
         <v>9.1836734693877546E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>1</v>
       </c>
@@ -5468,7 +5465,7 @@
         <v>9.1836734693877546E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>2</v>
       </c>
@@ -5528,7 +5525,7 @@
         <v>9.1836734693877546E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>3</v>
       </c>
@@ -5588,7 +5585,7 @@
         <v>9.1836734693877546E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>4</v>
       </c>
@@ -5648,7 +5645,7 @@
         <v>9.1836734693877546E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>5</v>
       </c>
@@ -5708,7 +5705,7 @@
         <v>9.1836734693877546E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>6</v>
       </c>
@@ -5768,7 +5765,7 @@
         <v>9.1836734693877546E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>7</v>
       </c>
@@ -5828,7 +5825,7 @@
         <v>9.1836734693877546E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>8</v>
       </c>
@@ -5888,7 +5885,7 @@
         <v>9.1836734693877546E-4</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>9</v>
       </c>
@@ -5948,7 +5945,7 @@
         <v>9.1836734693877546E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>10</v>
       </c>
@@ -6008,7 +6005,7 @@
         <v>9.1836734693877546E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>11</v>
       </c>
@@ -6068,7 +6065,7 @@
         <v>9.1836734693877546E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>12</v>
       </c>
@@ -6148,14 +6145,14 @@
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="17" max="17" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="C1" s="1">
         <v>0</v>
@@ -6200,7 +6197,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="23"/>
       <c r="C2" s="24" t="s">
@@ -6250,7 +6247,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -6316,7 +6313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -6382,7 +6379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -6442,7 +6439,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -6502,7 +6499,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -6562,7 +6559,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -6622,7 +6619,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -6682,7 +6679,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -6742,7 +6739,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -6802,7 +6799,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -6862,7 +6859,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -6922,7 +6919,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -6982,7 +6979,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -7042,10 +7039,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="53" t="s">
         <v>22</v>
@@ -7063,7 +7060,7 @@
       <c r="N17" s="62"/>
       <c r="O17" s="54"/>
     </row>
-    <row r="18" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="55"/>
       <c r="C18" s="56"/>
       <c r="D18" s="59"/>
@@ -7073,7 +7070,7 @@
       <c r="N18" s="55"/>
       <c r="O18" s="56"/>
     </row>
-    <row r="20" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="C20" s="1">
         <v>0</v>
@@ -7115,7 +7112,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="23" t="s">
         <v>13</v>
@@ -7160,7 +7157,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>0</v>
       </c>
@@ -7220,7 +7217,7 @@
         <v>8.4183673469387758E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>1</v>
       </c>
@@ -7280,7 +7277,7 @@
         <v>8.4183673469387758E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>2</v>
       </c>
@@ -7340,7 +7337,7 @@
         <v>8.4183673469387758E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>3</v>
       </c>
@@ -7400,7 +7397,7 @@
         <v>8.4183673469387758E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>4</v>
       </c>
@@ -7460,7 +7457,7 @@
         <v>8.4183673469387758E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>5</v>
       </c>
@@ -7520,7 +7517,7 @@
         <v>8.4183673469387758E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>6</v>
       </c>
@@ -7580,7 +7577,7 @@
         <v>8.4183673469387758E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>7</v>
       </c>
@@ -7640,7 +7637,7 @@
         <v>8.4183673469387758E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>8</v>
       </c>
@@ -7700,7 +7697,7 @@
         <v>8.4183673469387758E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>9</v>
       </c>
@@ -7760,7 +7757,7 @@
         <v>8.4183673469387758E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>10</v>
       </c>
@@ -7820,7 +7817,7 @@
         <v>8.4183673469387758E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>11</v>
       </c>
@@ -7880,7 +7877,7 @@
         <v>8.4183673469387758E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>12</v>
       </c>
@@ -7960,14 +7957,14 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="17" max="17" width="22.296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="C1" s="1">
         <v>0</v>
@@ -8012,7 +8009,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="23"/>
       <c r="C2" s="24" t="s">
@@ -8061,7 +8058,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -8115,7 +8112,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -8172,7 +8169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -8230,7 +8227,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -8285,7 +8282,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -8337,7 +8334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -8387,7 +8384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -8437,7 +8434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -8487,7 +8484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -8537,7 +8534,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -8587,7 +8584,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -8637,7 +8634,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -8687,7 +8684,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -8736,10 +8733,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="53" t="s">
         <v>22</v>
@@ -8757,7 +8754,7 @@
       <c r="N17" s="62"/>
       <c r="O17" s="54"/>
     </row>
-    <row r="18" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="55"/>
       <c r="C18" s="56"/>
       <c r="D18" s="59"/>
@@ -8767,7 +8764,7 @@
       <c r="N18" s="55"/>
       <c r="O18" s="56"/>
     </row>
-    <row r="20" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="C20" s="1">
         <v>0</v>
@@ -8809,7 +8806,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="23" t="s">
         <v>13</v>
@@ -8854,7 +8851,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>0</v>
       </c>
@@ -8914,7 +8911,7 @@
         <v>3.2653061224489797E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>1</v>
       </c>
@@ -8974,7 +8971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>2</v>
       </c>
@@ -9034,7 +9031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>3</v>
       </c>
@@ -9094,7 +9091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>4</v>
       </c>
@@ -9154,7 +9151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>5</v>
       </c>
@@ -9214,7 +9211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>6</v>
       </c>
@@ -9274,7 +9271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>7</v>
       </c>
@@ -9334,7 +9331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>8</v>
       </c>
@@ -9394,7 +9391,7 @@
         <v>3.2653061224489797E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>9</v>
       </c>
@@ -9454,7 +9451,7 @@
         <v>6.5306122448979594E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>10</v>
       </c>
@@ -9514,7 +9511,7 @@
         <v>6.5306122448979594E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>11</v>
       </c>
@@ -9574,7 +9571,7 @@
         <v>6.5306122448979594E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>12</v>
       </c>
@@ -9654,14 +9651,14 @@
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="17" max="17" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="C1" s="1">
         <v>0</v>
@@ -9706,7 +9703,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="23"/>
       <c r="C2" s="24" t="s">
@@ -9755,7 +9752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -9821,7 +9818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -9888,7 +9885,7 @@
         <v>2256</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -9948,7 +9945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -10008,7 +10005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -10068,7 +10065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -10128,7 +10125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -10188,7 +10185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -10248,7 +10245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -10308,7 +10305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -10368,7 +10365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -10428,7 +10425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -10488,7 +10485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -10548,10 +10545,10 @@
         <v>2256</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="53" t="s">
         <v>22</v>
@@ -10569,7 +10566,7 @@
       <c r="N17" s="62"/>
       <c r="O17" s="54"/>
     </row>
-    <row r="18" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="55"/>
       <c r="C18" s="56"/>
       <c r="D18" s="59"/>
@@ -10579,7 +10576,7 @@
       <c r="N18" s="55"/>
       <c r="O18" s="56"/>
     </row>
-    <row r="20" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="C20" s="1">
         <v>0</v>
@@ -10621,7 +10618,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="23" t="s">
         <v>13</v>
@@ -10666,7 +10663,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>0</v>
       </c>
@@ -10726,7 +10723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>1</v>
       </c>
@@ -10786,7 +10783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>2</v>
       </c>
@@ -10846,7 +10843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>3</v>
       </c>
@@ -10906,7 +10903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>4</v>
       </c>
@@ -10966,7 +10963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>5</v>
       </c>
@@ -11026,7 +11023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>6</v>
       </c>
@@ -11086,7 +11083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>7</v>
       </c>
@@ -11146,7 +11143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>8</v>
       </c>
@@ -11206,7 +11203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>9</v>
       </c>
@@ -11266,7 +11263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>10</v>
       </c>
@@ -11326,7 +11323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>11</v>
       </c>
@@ -11386,7 +11383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>12</v>
       </c>
@@ -11466,14 +11463,14 @@
       <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="17" max="17" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="C1" s="1">
         <v>0</v>
@@ -11518,7 +11515,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="23"/>
       <c r="C2" s="24" t="s">
@@ -11567,7 +11564,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -11633,7 +11630,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -11699,7 +11696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -11759,7 +11756,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -11819,7 +11816,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -11879,7 +11876,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -11939,7 +11936,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -11999,7 +11996,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -12059,7 +12056,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -12119,7 +12116,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -12179,7 +12176,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -12239,7 +12236,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -12299,7 +12296,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -12359,10 +12356,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="53" t="s">
         <v>22</v>
@@ -12380,7 +12377,7 @@
       <c r="N17" s="62"/>
       <c r="O17" s="54"/>
     </row>
-    <row r="18" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="55"/>
       <c r="C18" s="56"/>
       <c r="D18" s="59"/>
@@ -12390,7 +12387,7 @@
       <c r="N18" s="55"/>
       <c r="O18" s="56"/>
     </row>
-    <row r="20" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="C20" s="1">
         <v>0</v>
@@ -12432,7 +12429,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="23" t="s">
         <v>13</v>
@@ -12477,7 +12474,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>0</v>
       </c>
@@ -12537,7 +12534,7 @@
         <v>1.3469387755102041E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>1</v>
       </c>
@@ -12597,7 +12594,7 @@
         <v>1.3469387755102041E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>2</v>
       </c>
@@ -12657,7 +12654,7 @@
         <v>1.3469387755102041E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>3</v>
       </c>
@@ -12717,7 +12714,7 @@
         <v>1.3469387755102041E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>4</v>
       </c>
@@ -12777,7 +12774,7 @@
         <v>1.3469387755102041E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>5</v>
       </c>
@@ -12837,7 +12834,7 @@
         <v>1.3469387755102041E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>6</v>
       </c>
@@ -12897,7 +12894,7 @@
         <v>1.3469387755102041E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>7</v>
       </c>
@@ -12957,7 +12954,7 @@
         <v>1.3469387755102041E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>8</v>
       </c>
@@ -13017,7 +13014,7 @@
         <v>1.3469387755102041E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>9</v>
       </c>
@@ -13077,7 +13074,7 @@
         <v>1.3469387755102041E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>10</v>
       </c>
@@ -13137,7 +13134,7 @@
         <v>1.3469387755102041E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>11</v>
       </c>
@@ -13197,7 +13194,7 @@
         <v>1.3469387755102041E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>12</v>
       </c>
@@ -13277,14 +13274,14 @@
       <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="17" max="17" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="C1" s="1">
         <v>0</v>
@@ -13329,7 +13326,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="23"/>
       <c r="C2" s="24" t="s">
@@ -13378,7 +13375,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -13444,7 +13441,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -13510,7 +13507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -13570,7 +13567,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -13630,7 +13627,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -13690,7 +13687,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -13750,7 +13747,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -13810,7 +13807,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -13870,7 +13867,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -13930,7 +13927,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -13990,7 +13987,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -14050,7 +14047,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -14110,7 +14107,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -14170,10 +14167,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="53" t="s">
         <v>22</v>
@@ -14191,7 +14188,7 @@
       <c r="N17" s="62"/>
       <c r="O17" s="54"/>
     </row>
-    <row r="18" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="55"/>
       <c r="C18" s="56"/>
       <c r="D18" s="59"/>
@@ -14201,7 +14198,7 @@
       <c r="N18" s="55"/>
       <c r="O18" s="56"/>
     </row>
-    <row r="20" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="C20" s="1">
         <v>0</v>
@@ -14243,7 +14240,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="23" t="s">
         <v>13</v>
@@ -14288,7 +14285,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>0</v>
       </c>
@@ -14348,7 +14345,7 @@
         <v>2.0204081632653061E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>1</v>
       </c>
@@ -14408,7 +14405,7 @@
         <v>2.0204081632653061E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>2</v>
       </c>
@@ -14468,7 +14465,7 @@
         <v>2.0204081632653061E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>3</v>
       </c>
@@ -14528,7 +14525,7 @@
         <v>2.0204081632653061E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>4</v>
       </c>
@@ -14588,7 +14585,7 @@
         <v>2.0204081632653061E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>5</v>
       </c>
@@ -14648,7 +14645,7 @@
         <v>2.0204081632653061E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>6</v>
       </c>
@@ -14708,7 +14705,7 @@
         <v>2.0204081632653061E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>7</v>
       </c>
@@ -14768,7 +14765,7 @@
         <v>2.0204081632653061E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>8</v>
       </c>
@@ -14828,7 +14825,7 @@
         <v>2.0204081632653061E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>9</v>
       </c>
@@ -14888,7 +14885,7 @@
         <v>2.0204081632653061E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>10</v>
       </c>
@@ -14948,7 +14945,7 @@
         <v>2.0204081632653061E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>11</v>
       </c>
@@ -15008,7 +15005,7 @@
         <v>2.0204081632653061E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>12</v>
       </c>
@@ -15084,18 +15081,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{043B5284-EA34-46FF-835F-D908E1D936B8}">
   <dimension ref="A1:R34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="17" max="17" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="C1" s="1">
         <v>0</v>
@@ -15140,7 +15137,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="23"/>
       <c r="C2" s="24" t="s">
@@ -15189,7 +15186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -15255,7 +15252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -15321,7 +15318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -15381,7 +15378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -15441,7 +15438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -15500,9 +15497,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q7" s="70"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="Q7" s="1"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -15562,7 +15559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -15622,7 +15619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -15682,7 +15679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -15742,7 +15739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -15802,7 +15799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -15862,7 +15859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -15922,7 +15919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -15982,10 +15979,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="53" t="s">
         <v>22</v>
@@ -16003,7 +16000,7 @@
       <c r="N17" s="62"/>
       <c r="O17" s="54"/>
     </row>
-    <row r="18" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="55"/>
       <c r="C18" s="56"/>
       <c r="D18" s="59"/>
@@ -16013,7 +16010,7 @@
       <c r="N18" s="55"/>
       <c r="O18" s="56"/>
     </row>
-    <row r="20" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="C20" s="1">
         <v>0</v>
@@ -16055,7 +16052,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="23" t="s">
         <v>13</v>
@@ -16100,7 +16097,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>0</v>
       </c>
@@ -16160,7 +16157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>1</v>
       </c>
@@ -16220,7 +16217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>2</v>
       </c>
@@ -16280,7 +16277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>3</v>
       </c>
@@ -16340,7 +16337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>4</v>
       </c>
@@ -16400,7 +16397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>5</v>
       </c>
@@ -16460,7 +16457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>6</v>
       </c>
@@ -16520,7 +16517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>7</v>
       </c>
@@ -16580,7 +16577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>8</v>
       </c>
@@ -16640,7 +16637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>9</v>
       </c>
@@ -16700,7 +16697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>10</v>
       </c>
@@ -16760,7 +16757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>11</v>
       </c>
@@ -16820,7 +16817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>12</v>
       </c>
@@ -16893,21 +16890,21 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26776EEC-CBE5-4A2D-B10B-79234F95E95E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E58FFC4D-9DDA-4D24-96DA-06E01B1CE53E}">
   <dimension ref="A1:R34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="17" max="17" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="C1" s="1">
         <v>0</v>
@@ -16952,46 +16949,46 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="23"/>
-      <c r="C2" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="14" t="s">
+      <c r="C2" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="14">
+      <c r="G2" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="41">
         <v>9</v>
       </c>
-      <c r="I2" s="14">
+      <c r="I2" s="41">
         <v>8</v>
       </c>
-      <c r="J2" s="14">
+      <c r="J2" s="41">
         <v>7</v>
       </c>
-      <c r="K2" s="14">
+      <c r="K2" s="41">
         <v>6</v>
       </c>
-      <c r="L2" s="14">
+      <c r="L2" s="41">
         <v>5</v>
       </c>
-      <c r="M2" s="14">
-        <v>4</v>
-      </c>
-      <c r="N2" s="14">
+      <c r="M2" s="41">
+        <v>4</v>
+      </c>
+      <c r="N2" s="41">
         <v>3</v>
       </c>
-      <c r="O2" s="25">
+      <c r="O2" s="42">
         <v>2</v>
       </c>
       <c r="Q2" t="s">
@@ -17001,64 +16998,64 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>0</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="37" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="2">
-        <f>COMBIN(48,3)</f>
-        <v>17296</v>
+        <f>$R$4</f>
+        <v>0</v>
       </c>
       <c r="D3" s="3">
-        <f>$R$2</f>
-        <v>0</v>
+        <f>3*COMBIN(44,2)+3*COMBIN(44,2)</f>
+        <v>5676</v>
       </c>
       <c r="E3" s="3">
-        <f t="shared" ref="E3:O14" si="0">$R$2</f>
-        <v>0</v>
+        <f>3*COMBIN(44,2)+3*COMBIN(40,2)</f>
+        <v>5178</v>
       </c>
       <c r="F3" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>3*COMBIN(44,2)+3*COMBIN(36,2)</f>
+        <v>4728</v>
       </c>
       <c r="G3" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>3*COMBIN(44,2)+3*COMBIN(32,2)</f>
+        <v>4326</v>
       </c>
       <c r="H3" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>3*COMBIN(44,2)+3*COMBIN(28,2)</f>
+        <v>3972</v>
       </c>
       <c r="I3" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>3*COMBIN(44,2)+3*COMBIN(24,2)</f>
+        <v>3666</v>
       </c>
       <c r="J3" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>3*COMBIN(44,2)+3*COMBIN(20,2)</f>
+        <v>3408</v>
       </c>
       <c r="K3" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>3*COMBIN(44,2)+3*COMBIN(16,2)</f>
+        <v>3198</v>
       </c>
       <c r="L3" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>3*COMBIN(44,2)+3*COMBIN(12,2)</f>
+        <v>3036</v>
       </c>
       <c r="M3" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>3*COMBIN(44,2)+3*COMBIN(8,2)</f>
+        <v>2922</v>
       </c>
       <c r="N3" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>3*COMBIN(44,2)+3*COMBIN(4,2)</f>
+        <v>2856</v>
       </c>
       <c r="O3" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>3*COMBIN(44,2)</f>
+        <v>2838</v>
       </c>
       <c r="Q3" t="s">
         <v>24</v>
@@ -17067,64 +17064,64 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="38" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="5">
-        <f>$R$3</f>
-        <v>0</v>
+        <f>3*COMBIN(44,2)+3*COMBIN(44,2)</f>
+        <v>5676</v>
       </c>
       <c r="D4" s="6">
-        <f>COMBIN(44,3)</f>
-        <v>13244</v>
-      </c>
-      <c r="E4" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F4" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G4" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H4" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I4" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J4" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K4" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L4" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M4" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N4" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O4" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>$R$4</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
+        <f>3*COMBIN(40,2)+3*COMBIN(40,2)</f>
+        <v>4680</v>
+      </c>
+      <c r="F4" s="6">
+        <f>3*COMBIN(40,2)+3*COMBIN(36,2)</f>
+        <v>4230</v>
+      </c>
+      <c r="G4" s="6">
+        <f>3*COMBIN(40,2)+3*COMBIN(32,2)</f>
+        <v>3828</v>
+      </c>
+      <c r="H4" s="6">
+        <f>3*COMBIN(40,2)+3*COMBIN(28,2)</f>
+        <v>3474</v>
+      </c>
+      <c r="I4" s="6">
+        <f>3*COMBIN(40,2)+3*COMBIN(24,2)</f>
+        <v>3168</v>
+      </c>
+      <c r="J4" s="6">
+        <f>3*COMBIN(40,2)+3*COMBIN(20,2)</f>
+        <v>2910</v>
+      </c>
+      <c r="K4" s="6">
+        <f>3*COMBIN(40,2)+3*COMBIN(16,2)</f>
+        <v>2700</v>
+      </c>
+      <c r="L4" s="6">
+        <f>3*COMBIN(40,2)+3*COMBIN(12,2)</f>
+        <v>2538</v>
+      </c>
+      <c r="M4" s="6">
+        <f>3*COMBIN(40,2)+3*COMBIN(8,2)</f>
+        <v>2424</v>
+      </c>
+      <c r="N4" s="6">
+        <f>3*COMBIN(40,2)+3*COMBIN(4,2)</f>
+        <v>2358</v>
+      </c>
+      <c r="O4" s="7">
+        <f>3*COMBIN(40,2)</f>
+        <v>2340</v>
       </c>
       <c r="Q4" t="s">
         <v>25</v>
@@ -17133,671 +17130,667 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="38" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="5">
-        <f t="shared" ref="C5:N15" si="1">$R$3</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>3*COMBIN(40,2)+3*COMBIN(44,2)</f>
+        <v>5178</v>
+      </c>
+      <c r="D5" s="6">
+        <f>3*COMBIN(40,2)+3*COMBIN(40,2)</f>
+        <v>4680</v>
       </c>
       <c r="E5" s="6">
-        <f>COMBIN(40,3)</f>
-        <v>9880</v>
-      </c>
-      <c r="F5" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G5" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H5" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I5" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J5" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K5" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L5" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M5" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N5" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O5" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
+        <f>$R$4</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <f>3*COMBIN(36,2)+3*COMBIN(36,2)</f>
+        <v>3780</v>
+      </c>
+      <c r="G5" s="6">
+        <f>3*COMBIN(36,2)+3*COMBIN(32,2)</f>
+        <v>3378</v>
+      </c>
+      <c r="H5" s="6">
+        <f>3*COMBIN(36,2)+3*COMBIN(28,2)</f>
+        <v>3024</v>
+      </c>
+      <c r="I5" s="6">
+        <f>3*COMBIN(36,2)+3*COMBIN(24,2)</f>
+        <v>2718</v>
+      </c>
+      <c r="J5" s="6">
+        <f>3*COMBIN(36,2)+3*COMBIN(20,2)</f>
+        <v>2460</v>
+      </c>
+      <c r="K5" s="6">
+        <f>3*COMBIN(36,2)+3*COMBIN(16,2)</f>
+        <v>2250</v>
+      </c>
+      <c r="L5" s="6">
+        <f>3*COMBIN(36,2)+3*COMBIN(12,2)</f>
+        <v>2088</v>
+      </c>
+      <c r="M5" s="6">
+        <f>3*COMBIN(36,2)+3*COMBIN(8,2)</f>
+        <v>1974</v>
+      </c>
+      <c r="N5" s="6">
+        <f>3*COMBIN(36,2)+3*COMBIN(4,2)</f>
+        <v>1908</v>
+      </c>
+      <c r="O5" s="7">
+        <f>3*COMBIN(36,2)</f>
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="38" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D6" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E6" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>3*COMBIN(36,2)+3*COMBIN(44,2)</f>
+        <v>4728</v>
+      </c>
+      <c r="D6" s="6">
+        <f>3*COMBIN(36,2)+3*COMBIN(40,2)</f>
+        <v>4230</v>
+      </c>
+      <c r="E6" s="6">
+        <f>3*COMBIN(36,2)+3*COMBIN(36,2)</f>
+        <v>3780</v>
       </c>
       <c r="F6" s="6">
-        <f>COMBIN(36,3)</f>
-        <v>7139.9999999999991</v>
-      </c>
-      <c r="G6" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H6" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I6" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J6" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K6" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L6" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M6" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N6" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O6" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
+        <f>$R$4</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="6">
+        <f>3*COMBIN(32,2)+3*COMBIN(32,2)</f>
+        <v>2976</v>
+      </c>
+      <c r="H6" s="6">
+        <f>3*COMBIN(32,2)+3*COMBIN(28,2)</f>
+        <v>2622</v>
+      </c>
+      <c r="I6" s="6">
+        <f>3*COMBIN(32,2)+3*COMBIN(24,2)</f>
+        <v>2316</v>
+      </c>
+      <c r="J6" s="6">
+        <f>3*COMBIN(32,2)+3*COMBIN(20,2)</f>
+        <v>2058</v>
+      </c>
+      <c r="K6" s="6">
+        <f>3*COMBIN(32,2)+3*COMBIN(16,2)</f>
+        <v>1848</v>
+      </c>
+      <c r="L6" s="6">
+        <f>3*COMBIN(32,2)+3*COMBIN(12,2)</f>
+        <v>1686</v>
+      </c>
+      <c r="M6" s="6">
+        <f>3*COMBIN(32,2)+3*COMBIN(8,2)</f>
+        <v>1572</v>
+      </c>
+      <c r="N6" s="6">
+        <f>3*COMBIN(32,2)+3*COMBIN(4,2)</f>
+        <v>1506</v>
+      </c>
+      <c r="O6" s="7">
+        <f>3*COMBIN(32,2)</f>
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="38" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D7" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E7" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F7" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>3*COMBIN(32,2)+3*COMBIN(44,2)</f>
+        <v>4326</v>
+      </c>
+      <c r="D7" s="6">
+        <f>3*COMBIN(32,2)+3*COMBIN(40,2)</f>
+        <v>3828</v>
+      </c>
+      <c r="E7" s="6">
+        <f>3*COMBIN(32,2)+3*COMBIN(36,2)</f>
+        <v>3378</v>
+      </c>
+      <c r="F7" s="6">
+        <f>3*COMBIN(32,2)+3*COMBIN(32,2)</f>
+        <v>2976</v>
       </c>
       <c r="G7" s="6">
-        <f>COMBIN(32,3)</f>
-        <v>4960</v>
-      </c>
-      <c r="H7" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I7" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J7" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K7" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L7" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M7" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N7" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O7" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="70"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
+        <f>$R$4</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="6">
+        <f>3*COMBIN(28,2)+3*COMBIN(28,2)</f>
+        <v>2268</v>
+      </c>
+      <c r="I7" s="6">
+        <f>3*COMBIN(28,2)+3*COMBIN(24,2)</f>
+        <v>1962</v>
+      </c>
+      <c r="J7" s="6">
+        <f>3*COMBIN(28,2)+3*COMBIN(20,2)</f>
+        <v>1704</v>
+      </c>
+      <c r="K7" s="6">
+        <f>3*COMBIN(28,2)+3*COMBIN(16,2)</f>
+        <v>1494</v>
+      </c>
+      <c r="L7" s="6">
+        <f>3*COMBIN(28,2)+3*COMBIN(12,2)</f>
+        <v>1332</v>
+      </c>
+      <c r="M7" s="6">
+        <f>3*COMBIN(28,2)+3*COMBIN(8,2)</f>
+        <v>1218</v>
+      </c>
+      <c r="N7" s="6">
+        <f>3*COMBIN(28,2)+3*COMBIN(4,2)</f>
+        <v>1152</v>
+      </c>
+      <c r="O7" s="7">
+        <f>3*COMBIN(28,2)</f>
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="38">
         <v>9</v>
       </c>
       <c r="C8" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D8" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E8" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G8" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>3*COMBIN(28,2)+3*COMBIN(44,2)</f>
+        <v>3972</v>
+      </c>
+      <c r="D8" s="6">
+        <f>3*COMBIN(28,2)+3*COMBIN(40,2)</f>
+        <v>3474</v>
+      </c>
+      <c r="E8" s="6">
+        <f>3*COMBIN(28,2)+3*COMBIN(36,2)</f>
+        <v>3024</v>
+      </c>
+      <c r="F8" s="6">
+        <f>3*COMBIN(28,2)+3*COMBIN(32,2)</f>
+        <v>2622</v>
+      </c>
+      <c r="G8" s="6">
+        <f>3*COMBIN(28,2)+3*COMBIN(28,2)</f>
+        <v>2268</v>
       </c>
       <c r="H8" s="6">
-        <f>COMBIN(28,3)</f>
-        <v>3276</v>
-      </c>
-      <c r="I8" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J8" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K8" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L8" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M8" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N8" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O8" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
+        <f>$R$4</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="6">
+        <f>3*COMBIN(24,2)+3*COMBIN(24,2)</f>
+        <v>1656</v>
+      </c>
+      <c r="J8" s="6">
+        <f>3*COMBIN(24,2)+3*COMBIN(20,2)</f>
+        <v>1398</v>
+      </c>
+      <c r="K8" s="6">
+        <f>3*COMBIN(24,2)+3*COMBIN(16,2)</f>
+        <v>1188</v>
+      </c>
+      <c r="L8" s="6">
+        <f>3*COMBIN(24,2)+3*COMBIN(12,2)</f>
+        <v>1026</v>
+      </c>
+      <c r="M8" s="6">
+        <f>3*COMBIN(24,2)+3*COMBIN(8,2)</f>
+        <v>912</v>
+      </c>
+      <c r="N8" s="6">
+        <f>3*COMBIN(24,2)+3*COMBIN(4,2)</f>
+        <v>846</v>
+      </c>
+      <c r="O8" s="7">
+        <f>3*COMBIN(24,2)</f>
+        <v>828</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="38">
         <v>8</v>
       </c>
       <c r="C9" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D9" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E9" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F9" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>3*COMBIN(24,2)+3*COMBIN(44,2)</f>
+        <v>3666</v>
+      </c>
+      <c r="D9" s="6">
+        <f>3*COMBIN(24,2)+3*COMBIN(40,2)</f>
+        <v>3168</v>
+      </c>
+      <c r="E9" s="6">
+        <f>3*COMBIN(24,2)+3*COMBIN(36,2)</f>
+        <v>2718</v>
+      </c>
+      <c r="F9" s="6">
+        <f>3*COMBIN(24,2)+3*COMBIN(32,2)</f>
+        <v>2316</v>
+      </c>
+      <c r="G9" s="6">
+        <f>3*COMBIN(24,2)+3*COMBIN(28,2)</f>
+        <v>1962</v>
+      </c>
+      <c r="H9" s="6">
+        <f>3*COMBIN(24,2)+3*COMBIN(24,2)</f>
+        <v>1656</v>
       </c>
       <c r="I9" s="6">
-        <f>COMBIN(24,3)</f>
-        <v>2024.0000000000002</v>
-      </c>
-      <c r="J9" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L9" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M9" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N9" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O9" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
+        <f>$R$4</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="6">
+        <f>3*COMBIN(20,2)+3*COMBIN(20,2)</f>
+        <v>1140</v>
+      </c>
+      <c r="K9" s="6">
+        <f>3*COMBIN(20,2)+3*COMBIN(16,2)</f>
+        <v>930</v>
+      </c>
+      <c r="L9" s="6">
+        <f>3*COMBIN(20,2)+3*COMBIN(12,2)</f>
+        <v>768</v>
+      </c>
+      <c r="M9" s="6">
+        <f>3*COMBIN(20,2)+3*COMBIN(8,2)</f>
+        <v>654</v>
+      </c>
+      <c r="N9" s="6">
+        <f>3*COMBIN(20,2)+3*COMBIN(4,2)</f>
+        <v>588</v>
+      </c>
+      <c r="O9" s="7">
+        <f>3*COMBIN(20,2)</f>
+        <v>570</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="38">
         <v>7</v>
       </c>
       <c r="C10" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D10" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E10" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F10" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I10" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>3*COMBIN(20,2)+3*COMBIN(44,2)</f>
+        <v>3408</v>
+      </c>
+      <c r="D10" s="6">
+        <f>3*COMBIN(20,2)+3*COMBIN(40,2)</f>
+        <v>2910</v>
+      </c>
+      <c r="E10" s="6">
+        <f>3*COMBIN(20,2)+3*COMBIN(36,2)</f>
+        <v>2460</v>
+      </c>
+      <c r="F10" s="6">
+        <f>3*COMBIN(20,2)+3*COMBIN(32,2)</f>
+        <v>2058</v>
+      </c>
+      <c r="G10" s="6">
+        <f>3*COMBIN(20,2)+3*COMBIN(28,2)</f>
+        <v>1704</v>
+      </c>
+      <c r="H10" s="6">
+        <f>3*COMBIN(20,2)+3*COMBIN(24,2)</f>
+        <v>1398</v>
+      </c>
+      <c r="I10" s="6">
+        <f>3*COMBIN(20,2)+3*COMBIN(20,2)</f>
+        <v>1140</v>
       </c>
       <c r="J10" s="6">
-        <f>COMBIN(20,3)</f>
-        <v>1140</v>
-      </c>
-      <c r="K10" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L10" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M10" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N10" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O10" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
+        <f>$R$4</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="6">
+        <f>3*COMBIN(16,2)+3*COMBIN(16,2)</f>
+        <v>720</v>
+      </c>
+      <c r="L10" s="6">
+        <f>3*COMBIN(16,2)+3*COMBIN(12,2)</f>
+        <v>558</v>
+      </c>
+      <c r="M10" s="6">
+        <f>3*COMBIN(16,2)+3*COMBIN(8,2)</f>
+        <v>444</v>
+      </c>
+      <c r="N10" s="6">
+        <f>3*COMBIN(16,2)+3*COMBIN(4,2)</f>
+        <v>378</v>
+      </c>
+      <c r="O10" s="7">
+        <f>3*COMBIN(16,2)</f>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="38">
         <v>6</v>
       </c>
       <c r="C11" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D11" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E11" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F11" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>3*COMBIN(16,2)+3*COMBIN(44,2)</f>
+        <v>3198</v>
+      </c>
+      <c r="D11" s="6">
+        <f>3*COMBIN(16,2)+3*COMBIN(40,2)</f>
+        <v>2700</v>
+      </c>
+      <c r="E11" s="6">
+        <f>3*COMBIN(16,2)+3*COMBIN(36,2)</f>
+        <v>2250</v>
+      </c>
+      <c r="F11" s="6">
+        <f>3*COMBIN(16,2)+3*COMBIN(32,2)</f>
+        <v>1848</v>
+      </c>
+      <c r="G11" s="6">
+        <f>3*COMBIN(16,2)+3*COMBIN(28,2)</f>
+        <v>1494</v>
+      </c>
+      <c r="H11" s="6">
+        <f>3*COMBIN(16,2)+3*COMBIN(24,2)</f>
+        <v>1188</v>
+      </c>
+      <c r="I11" s="6">
+        <f>3*COMBIN(16,2)+3*COMBIN(20,2)</f>
+        <v>930</v>
+      </c>
+      <c r="J11" s="6">
+        <f>3*COMBIN(16,2)+3*COMBIN(16,2)</f>
+        <v>720</v>
       </c>
       <c r="K11" s="6">
-        <f>COMBIN(16,3)</f>
-        <v>560</v>
-      </c>
-      <c r="L11" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M11" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N11" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O11" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
+        <f>$R$4</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="6">
+        <f>3*COMBIN(12,2)+3*COMBIN(12,2)</f>
+        <v>396</v>
+      </c>
+      <c r="M11" s="6">
+        <f>3*COMBIN(12,2)+3*COMBIN(8,2)</f>
+        <v>282</v>
+      </c>
+      <c r="N11" s="6">
+        <f>3*COMBIN(12,2)+3*COMBIN(4,2)</f>
+        <v>216</v>
+      </c>
+      <c r="O11" s="7">
+        <f>3*COMBIN(12,2)</f>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="38">
         <v>5</v>
       </c>
       <c r="C12" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D12" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E12" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F12" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>3*COMBIN(12,2)+3*COMBIN(44,2)</f>
+        <v>3036</v>
+      </c>
+      <c r="D12" s="6">
+        <f>3*COMBIN(12,2)+3*COMBIN(40,2)</f>
+        <v>2538</v>
+      </c>
+      <c r="E12" s="6">
+        <f>3*COMBIN(12,2)+3*COMBIN(36,2)</f>
+        <v>2088</v>
+      </c>
+      <c r="F12" s="6">
+        <f>3*COMBIN(12,2)+3*COMBIN(32,2)</f>
+        <v>1686</v>
+      </c>
+      <c r="G12" s="6">
+        <f>3*COMBIN(12,2)+3*COMBIN(28,2)</f>
+        <v>1332</v>
+      </c>
+      <c r="H12" s="6">
+        <f>3*COMBIN(12,2)+3*COMBIN(24,2)</f>
+        <v>1026</v>
+      </c>
+      <c r="I12" s="6">
+        <f>3*COMBIN(12,2)+3*COMBIN(20,2)</f>
+        <v>768</v>
+      </c>
+      <c r="J12" s="6">
+        <f>3*COMBIN(12,2)+3*COMBIN(16,2)</f>
+        <v>558</v>
+      </c>
+      <c r="K12" s="6">
+        <f>3*COMBIN(12,2)+3*COMBIN(12,2)</f>
+        <v>396</v>
       </c>
       <c r="L12" s="6">
-        <f>COMBIN(12,3)</f>
-        <v>220</v>
-      </c>
-      <c r="M12" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N12" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O12" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
+        <f>$R$4</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="6">
+        <f>3*COMBIN(8,2)+3*COMBIN(8,2)</f>
+        <v>168</v>
+      </c>
+      <c r="N12" s="6">
+        <f>3*COMBIN(8,2)+3*COMBIN(4,2)</f>
+        <v>102</v>
+      </c>
+      <c r="O12" s="7">
+        <f>3*COMBIN(8,2)</f>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="38">
         <v>4</v>
       </c>
       <c r="C13" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D13" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E13" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F13" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H13" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J13" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K13" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L13" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>3*COMBIN(8,2)+3*COMBIN(44,2)</f>
+        <v>2922</v>
+      </c>
+      <c r="D13" s="6">
+        <f>3*COMBIN(8,2)+3*COMBIN(40,2)</f>
+        <v>2424</v>
+      </c>
+      <c r="E13" s="6">
+        <f>3*COMBIN(8,2)+3*COMBIN(36,2)</f>
+        <v>1974</v>
+      </c>
+      <c r="F13" s="6">
+        <f>3*COMBIN(8,2)+3*COMBIN(32,2)</f>
+        <v>1572</v>
+      </c>
+      <c r="G13" s="6">
+        <f>3*COMBIN(8,2)+3*COMBIN(28,2)</f>
+        <v>1218</v>
+      </c>
+      <c r="H13" s="6">
+        <f>3*COMBIN(8,2)+3*COMBIN(24,2)</f>
+        <v>912</v>
+      </c>
+      <c r="I13" s="6">
+        <f>3*COMBIN(8,2)+3*COMBIN(20,2)</f>
+        <v>654</v>
+      </c>
+      <c r="J13" s="6">
+        <f>3*COMBIN(8,2)+3*COMBIN(16,2)</f>
+        <v>444</v>
+      </c>
+      <c r="K13" s="6">
+        <f>3*COMBIN(8,2)+3*COMBIN(12,2)</f>
+        <v>282</v>
+      </c>
+      <c r="L13" s="6">
+        <f>3*COMBIN(8,2)+3*COMBIN(8,2)</f>
+        <v>168</v>
       </c>
       <c r="M13" s="6">
-        <f>COMBIN(8,3)</f>
-        <v>56</v>
-      </c>
-      <c r="N13" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O13" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
+        <f>$R$4</f>
+        <v>0</v>
+      </c>
+      <c r="N13" s="6">
+        <f>3*COMBIN(4,2)+3*COMBIN(4,2)</f>
+        <v>36</v>
+      </c>
+      <c r="O13" s="7">
+        <f>3*COMBIN(4,2)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>11</v>
       </c>
-      <c r="B14" s="17">
+      <c r="B14" s="38">
         <v>3</v>
       </c>
       <c r="C14" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D14" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E14" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F14" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H14" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L14" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M14" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>3*COMBIN(4,2)+3*COMBIN(44,2)</f>
+        <v>2856</v>
+      </c>
+      <c r="D14" s="6">
+        <f>3*COMBIN(4,2)+3*COMBIN(40,2)</f>
+        <v>2358</v>
+      </c>
+      <c r="E14" s="6">
+        <f>3*COMBIN(4,2)+3*COMBIN(36,2)</f>
+        <v>1908</v>
+      </c>
+      <c r="F14" s="6">
+        <f>3*COMBIN(4,2)+3*COMBIN(32,2)</f>
+        <v>1506</v>
+      </c>
+      <c r="G14" s="6">
+        <f>3*COMBIN(4,2)+3*COMBIN(28,2)</f>
+        <v>1152</v>
+      </c>
+      <c r="H14" s="6">
+        <f>3*COMBIN(4,2)+3*COMBIN(24,2)</f>
+        <v>846</v>
+      </c>
+      <c r="I14" s="6">
+        <f>3*COMBIN(4,2)+3*COMBIN(20,2)</f>
+        <v>588</v>
+      </c>
+      <c r="J14" s="6">
+        <f>3*COMBIN(4,2)+3*COMBIN(16,2)</f>
+        <v>378</v>
+      </c>
+      <c r="K14" s="6">
+        <f>3*COMBIN(4,2)+3*COMBIN(12,2)</f>
+        <v>216</v>
+      </c>
+      <c r="L14" s="6">
+        <f>3*COMBIN(4,2)+3*COMBIN(8,2)</f>
+        <v>102</v>
+      </c>
+      <c r="M14" s="6">
+        <f>3*COMBIN(4,2)+3*COMBIN(4,2)</f>
+        <v>36</v>
       </c>
       <c r="N14" s="6">
-        <f>COMBIN(4,3)</f>
-        <v>4</v>
-      </c>
-      <c r="O14" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+        <f>$R$4</f>
+        <v>0</v>
+      </c>
+      <c r="O14" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>12</v>
       </c>
-      <c r="B15" s="18">
+      <c r="B15" s="39">
         <v>2</v>
       </c>
       <c r="C15" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D15" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E15" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F15" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H15" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K15" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L15" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M15" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N15" s="16">
-        <f t="shared" si="1"/>
+        <f>3*COMBIN(44,2)</f>
+        <v>2838</v>
+      </c>
+      <c r="D15" s="9">
+        <f>3*COMBIN(40,2)</f>
+        <v>2340</v>
+      </c>
+      <c r="E15" s="9">
+        <f>3*COMBIN(36,2)</f>
+        <v>1890</v>
+      </c>
+      <c r="F15" s="9">
+        <f>3*COMBIN(32,2)</f>
+        <v>1488</v>
+      </c>
+      <c r="G15" s="9">
+        <f>3*COMBIN(28,2)</f>
+        <v>1134</v>
+      </c>
+      <c r="H15" s="9">
+        <f>3*COMBIN(24,2)</f>
+        <v>828</v>
+      </c>
+      <c r="I15" s="9">
+        <f>3*COMBIN(20,2)</f>
+        <v>570</v>
+      </c>
+      <c r="J15" s="9">
+        <f>3*COMBIN(16,2)</f>
+        <v>360</v>
+      </c>
+      <c r="K15" s="9">
+        <f>3*COMBIN(12,2)</f>
+        <v>198</v>
+      </c>
+      <c r="L15" s="9">
+        <f>3*COMBIN(8,2)</f>
+        <v>84</v>
+      </c>
+      <c r="M15" s="9">
+        <f>3*COMBIN(4,2)</f>
+        <v>18</v>
+      </c>
+      <c r="N15" s="9">
         <v>0</v>
       </c>
       <c r="O15" s="10">
-        <f>$R$4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="53" t="s">
         <v>22</v>
@@ -17815,7 +17808,7 @@
       <c r="N17" s="62"/>
       <c r="O17" s="54"/>
     </row>
-    <row r="18" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="55"/>
       <c r="C18" s="56"/>
       <c r="D18" s="59"/>
@@ -17825,7 +17818,7 @@
       <c r="N18" s="55"/>
       <c r="O18" s="56"/>
     </row>
-    <row r="20" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="C20" s="1">
         <v>0</v>
@@ -17867,7 +17860,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="23" t="s">
         <v>13</v>
@@ -17912,7 +17905,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>0</v>
       </c>
@@ -17921,58 +17914,58 @@
       </c>
       <c r="C22" s="36">
         <f>C3/$D$17</f>
-        <v>0.88244897959183677</v>
+        <v>0</v>
       </c>
       <c r="D22" s="44">
-        <f t="shared" ref="D22:O22" si="2">D3/$D$17</f>
-        <v>0</v>
+        <f t="shared" ref="D22:O22" si="0">D3/$D$17</f>
+        <v>0.28959183673469385</v>
       </c>
       <c r="E22" s="44">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.26418367346938776</v>
       </c>
       <c r="F22" s="44">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.24122448979591837</v>
       </c>
       <c r="G22" s="44">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.22071428571428572</v>
       </c>
       <c r="H22" s="44">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.20265306122448978</v>
       </c>
       <c r="I22" s="44">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.18704081632653061</v>
       </c>
       <c r="J22" s="44">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.17387755102040817</v>
       </c>
       <c r="K22" s="44">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.16316326530612246</v>
       </c>
       <c r="L22" s="44">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.15489795918367347</v>
       </c>
       <c r="M22" s="44">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.14908163265306124</v>
       </c>
       <c r="N22" s="44">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.14571428571428571</v>
       </c>
       <c r="O22" s="45">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+        <f t="shared" si="0"/>
+        <v>0.14479591836734693</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>1</v>
       </c>
@@ -17980,59 +17973,59 @@
         <v>1</v>
       </c>
       <c r="C23" s="46">
-        <f t="shared" ref="C23:O34" si="3">C4/$D$17</f>
-        <v>0</v>
+        <f t="shared" ref="C23:O34" si="1">C4/$D$17</f>
+        <v>0.28959183673469385</v>
       </c>
       <c r="D23" s="43">
-        <f t="shared" si="3"/>
-        <v>0.67571428571428571</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E23" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.23877551020408164</v>
       </c>
       <c r="F23" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.21581632653061225</v>
       </c>
       <c r="G23" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.1953061224489796</v>
       </c>
       <c r="H23" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.17724489795918366</v>
       </c>
       <c r="I23" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.16163265306122448</v>
       </c>
       <c r="J23" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.14846938775510204</v>
       </c>
       <c r="K23" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.13775510204081631</v>
       </c>
       <c r="L23" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.12948979591836735</v>
       </c>
       <c r="M23" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.1236734693877551</v>
       </c>
       <c r="N23" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.12030612244897959</v>
       </c>
       <c r="O23" s="47">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
+        <f t="shared" si="1"/>
+        <v>0.11938775510204082</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>2</v>
       </c>
@@ -18040,59 +18033,59 @@
         <v>2</v>
       </c>
       <c r="C24" s="46">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.26418367346938776</v>
       </c>
       <c r="D24" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.23877551020408164</v>
       </c>
       <c r="E24" s="43">
-        <f t="shared" si="3"/>
-        <v>0.50408163265306127</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="F24" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.19285714285714287</v>
       </c>
       <c r="G24" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.17234693877551022</v>
       </c>
       <c r="H24" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.15428571428571428</v>
       </c>
       <c r="I24" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.1386734693877551</v>
       </c>
       <c r="J24" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.12551020408163266</v>
       </c>
       <c r="K24" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.11479591836734694</v>
       </c>
       <c r="L24" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.10653061224489796</v>
       </c>
       <c r="M24" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.10071428571428571</v>
       </c>
       <c r="N24" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>9.7346938775510206E-2</v>
       </c>
       <c r="O24" s="47">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
+        <f t="shared" si="1"/>
+        <v>9.6428571428571433E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>3</v>
       </c>
@@ -18100,59 +18093,59 @@
         <v>3</v>
       </c>
       <c r="C25" s="46">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.24122448979591837</v>
       </c>
       <c r="D25" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.21581632653061225</v>
       </c>
       <c r="E25" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.19285714285714287</v>
       </c>
       <c r="F25" s="43">
-        <f t="shared" si="3"/>
-        <v>0.36428571428571421</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="G25" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.15183673469387754</v>
       </c>
       <c r="H25" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.13377551020408163</v>
       </c>
       <c r="I25" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.11816326530612245</v>
       </c>
       <c r="J25" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.105</v>
       </c>
       <c r="K25" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>9.4285714285714292E-2</v>
       </c>
       <c r="L25" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>8.6020408163265311E-2</v>
       </c>
       <c r="M25" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>8.0204081632653065E-2</v>
       </c>
       <c r="N25" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>7.6836734693877556E-2</v>
       </c>
       <c r="O25" s="47">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+        <f t="shared" si="1"/>
+        <v>7.591836734693877E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>4</v>
       </c>
@@ -18160,59 +18153,59 @@
         <v>4</v>
       </c>
       <c r="C26" s="46">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.22071428571428572</v>
       </c>
       <c r="D26" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.1953061224489796</v>
       </c>
       <c r="E26" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.17234693877551022</v>
       </c>
       <c r="F26" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.15183673469387754</v>
       </c>
       <c r="G26" s="43">
-        <f t="shared" si="3"/>
-        <v>0.2530612244897959</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="H26" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.11571428571428571</v>
       </c>
       <c r="I26" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.10010204081632654</v>
       </c>
       <c r="J26" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>8.6938775510204083E-2</v>
       </c>
       <c r="K26" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>7.6224489795918365E-2</v>
       </c>
       <c r="L26" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>6.7959183673469384E-2</v>
       </c>
       <c r="M26" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>6.2142857142857146E-2</v>
       </c>
       <c r="N26" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>5.877551020408163E-2</v>
       </c>
       <c r="O26" s="47">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
+        <f t="shared" si="1"/>
+        <v>5.7857142857142857E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>5</v>
       </c>
@@ -18220,59 +18213,59 @@
         <v>9</v>
       </c>
       <c r="C27" s="46">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.20265306122448978</v>
       </c>
       <c r="D27" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.17724489795918366</v>
       </c>
       <c r="E27" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.15428571428571428</v>
       </c>
       <c r="F27" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.13377551020408163</v>
       </c>
       <c r="G27" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.11571428571428571</v>
       </c>
       <c r="H27" s="43">
-        <f t="shared" si="3"/>
-        <v>0.16714285714285715</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="I27" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>8.4489795918367347E-2</v>
       </c>
       <c r="J27" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>7.1326530612244893E-2</v>
       </c>
       <c r="K27" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>6.0612244897959182E-2</v>
       </c>
       <c r="L27" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>5.2346938775510207E-2</v>
       </c>
       <c r="M27" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>4.6530612244897962E-2</v>
       </c>
       <c r="N27" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>4.3163265306122446E-2</v>
       </c>
       <c r="O27" s="47">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
+        <f t="shared" si="1"/>
+        <v>4.2244897959183673E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>6</v>
       </c>
@@ -18280,59 +18273,59 @@
         <v>8</v>
       </c>
       <c r="C28" s="46">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.18704081632653061</v>
       </c>
       <c r="D28" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.16163265306122448</v>
       </c>
       <c r="E28" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.1386734693877551</v>
       </c>
       <c r="F28" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.11816326530612245</v>
       </c>
       <c r="G28" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.10010204081632654</v>
       </c>
       <c r="H28" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>8.4489795918367347E-2</v>
       </c>
       <c r="I28" s="43">
-        <f t="shared" si="3"/>
-        <v>0.103265306122449</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="J28" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>5.8163265306122446E-2</v>
       </c>
       <c r="K28" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>4.7448979591836735E-2</v>
       </c>
       <c r="L28" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>3.9183673469387753E-2</v>
       </c>
       <c r="M28" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>3.3367346938775508E-2</v>
       </c>
       <c r="N28" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.03</v>
       </c>
       <c r="O28" s="47">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
+        <f t="shared" si="1"/>
+        <v>2.9081632653061223E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>7</v>
       </c>
@@ -18340,59 +18333,59 @@
         <v>7</v>
       </c>
       <c r="C29" s="46">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.17387755102040817</v>
       </c>
       <c r="D29" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.14846938775510204</v>
       </c>
       <c r="E29" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.12551020408163266</v>
       </c>
       <c r="F29" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.105</v>
       </c>
       <c r="G29" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>8.6938775510204083E-2</v>
       </c>
       <c r="H29" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>7.1326530612244893E-2</v>
       </c>
       <c r="I29" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>5.8163265306122446E-2</v>
       </c>
       <c r="J29" s="43">
-        <f t="shared" si="3"/>
-        <v>5.8163265306122446E-2</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="K29" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>3.6734693877551024E-2</v>
       </c>
       <c r="L29" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2.8469387755102042E-2</v>
       </c>
       <c r="M29" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2.2653061224489797E-2</v>
       </c>
       <c r="N29" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1.9285714285714285E-2</v>
       </c>
       <c r="O29" s="47">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
+        <f t="shared" si="1"/>
+        <v>1.8367346938775512E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>8</v>
       </c>
@@ -18400,59 +18393,59 @@
         <v>6</v>
       </c>
       <c r="C30" s="46">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.16316326530612246</v>
       </c>
       <c r="D30" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.13775510204081631</v>
       </c>
       <c r="E30" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.11479591836734694</v>
       </c>
       <c r="F30" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>9.4285714285714292E-2</v>
       </c>
       <c r="G30" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>7.6224489795918365E-2</v>
       </c>
       <c r="H30" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>6.0612244897959182E-2</v>
       </c>
       <c r="I30" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>4.7448979591836735E-2</v>
       </c>
       <c r="J30" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>3.6734693877551024E-2</v>
       </c>
       <c r="K30" s="43">
-        <f t="shared" si="3"/>
-        <v>2.8571428571428571E-2</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="L30" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2.0204081632653061E-2</v>
       </c>
       <c r="M30" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1.4387755102040817E-2</v>
       </c>
       <c r="N30" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1.1020408163265306E-2</v>
       </c>
       <c r="O30" s="47">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
+        <f t="shared" si="1"/>
+        <v>1.010204081632653E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>9</v>
       </c>
@@ -18460,59 +18453,59 @@
         <v>5</v>
       </c>
       <c r="C31" s="46">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.15489795918367347</v>
       </c>
       <c r="D31" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.12948979591836735</v>
       </c>
       <c r="E31" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.10653061224489796</v>
       </c>
       <c r="F31" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>8.6020408163265311E-2</v>
       </c>
       <c r="G31" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>6.7959183673469384E-2</v>
       </c>
       <c r="H31" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>5.2346938775510207E-2</v>
       </c>
       <c r="I31" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>3.9183673469387753E-2</v>
       </c>
       <c r="J31" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2.8469387755102042E-2</v>
       </c>
       <c r="K31" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2.0204081632653061E-2</v>
       </c>
       <c r="L31" s="43">
-        <f t="shared" si="3"/>
-        <v>1.1224489795918367E-2</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="M31" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>8.5714285714285719E-3</v>
       </c>
       <c r="N31" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>5.2040816326530612E-3</v>
       </c>
       <c r="O31" s="47">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
+        <f t="shared" si="1"/>
+        <v>4.2857142857142859E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>10</v>
       </c>
@@ -18520,59 +18513,59 @@
         <v>4</v>
       </c>
       <c r="C32" s="46">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.14908163265306124</v>
       </c>
       <c r="D32" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.1236734693877551</v>
       </c>
       <c r="E32" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.10071428571428571</v>
       </c>
       <c r="F32" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>8.0204081632653065E-2</v>
       </c>
       <c r="G32" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>6.2142857142857146E-2</v>
       </c>
       <c r="H32" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>4.6530612244897962E-2</v>
       </c>
       <c r="I32" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>3.3367346938775508E-2</v>
       </c>
       <c r="J32" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2.2653061224489797E-2</v>
       </c>
       <c r="K32" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1.4387755102040817E-2</v>
       </c>
       <c r="L32" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>8.5714285714285719E-3</v>
       </c>
       <c r="M32" s="43">
-        <f t="shared" si="3"/>
-        <v>2.8571428571428571E-3</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="N32" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1.8367346938775509E-3</v>
       </c>
       <c r="O32" s="47">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.4">
+        <f t="shared" si="1"/>
+        <v>9.1836734693877546E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>11</v>
       </c>
@@ -18580,59 +18573,59 @@
         <v>3</v>
       </c>
       <c r="C33" s="46">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.14571428571428571</v>
       </c>
       <c r="D33" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.12030612244897959</v>
       </c>
       <c r="E33" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>9.7346938775510206E-2</v>
       </c>
       <c r="F33" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>7.6836734693877556E-2</v>
       </c>
       <c r="G33" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>5.877551020408163E-2</v>
       </c>
       <c r="H33" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>4.3163265306122446E-2</v>
       </c>
       <c r="I33" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.03</v>
       </c>
       <c r="J33" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1.9285714285714285E-2</v>
       </c>
       <c r="K33" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1.1020408163265306E-2</v>
       </c>
       <c r="L33" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>5.2040816326530612E-3</v>
       </c>
       <c r="M33" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1.8367346938775509E-3</v>
       </c>
       <c r="N33" s="43">
-        <f t="shared" si="3"/>
-        <v>2.0408163265306123E-4</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O33" s="47">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>12</v>
       </c>
@@ -18640,55 +18633,55 @@
         <v>2</v>
       </c>
       <c r="C34" s="48">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.14479591836734693</v>
       </c>
       <c r="D34" s="49">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.11938775510204082</v>
       </c>
       <c r="E34" s="49">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>9.6428571428571433E-2</v>
       </c>
       <c r="F34" s="49">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>7.591836734693877E-2</v>
       </c>
       <c r="G34" s="49">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>5.7857142857142857E-2</v>
       </c>
       <c r="H34" s="49">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>4.2244897959183673E-2</v>
       </c>
       <c r="I34" s="49">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2.9081632653061223E-2</v>
       </c>
       <c r="J34" s="49">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1.8367346938775512E-2</v>
       </c>
       <c r="K34" s="49">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1.010204081632653E-2</v>
       </c>
       <c r="L34" s="49">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>4.2857142857142859E-3</v>
       </c>
       <c r="M34" s="49">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>9.1836734693877546E-4</v>
       </c>
       <c r="N34" s="49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O34" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
